--- a/自作アプリ企画案/自作アプリWBS.xlsx
+++ b/自作アプリ企画案/自作アプリWBS.xlsx
@@ -30,8 +30,8 @@
   <si>
     <t>■工数の計算方法
 　・1人月=30人日
-　・1人日=3時間
-　・1時間=0.333人日</t>
+　・1人日=8時間
+　・1時間=0.125人日</t>
   </si>
   <si>
     <t>どの状態で
@@ -528,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="71">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -537,6 +537,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -556,9 +559,6 @@
     <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
@@ -604,12 +604,6 @@
     <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
     <xf borderId="7" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -621,12 +615,6 @@
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf borderId="9" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -635,12 +623,6 @@
     <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf borderId="9" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -664,14 +646,14 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -684,6 +666,9 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -952,7 +937,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="2"/>
@@ -1023,40 +1008,40 @@
       <c r="AC2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="6" t="s">
         <v>18</v>
       </c>
       <c r="M3" s="2"/>
@@ -1078,24 +1063,26 @@
       <c r="AC3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="9">
-        <v>1.5</v>
+      <c r="F4" s="10">
+        <f t="shared" ref="F4:G4" si="1">1/8*3</f>
+        <v>0.375</v>
       </c>
       <c r="G4" s="10">
-        <v>1.0</v>
+        <f t="shared" si="1"/>
+        <v>0.375</v>
       </c>
       <c r="H4" s="11">
         <v>44998.0</v>
@@ -1106,8 +1093,8 @@
       <c r="J4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1127,22 +1114,24 @@
       <c r="AC4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="6"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="G5" s="12">
-        <v>1.0</v>
+      <c r="F5" s="10">
+        <f t="shared" ref="F5:G5" si="2">1/8*3</f>
+        <v>0.375</v>
+      </c>
+      <c r="G5" s="10">
+        <f t="shared" si="2"/>
+        <v>0.375</v>
       </c>
       <c r="H5" s="11">
         <v>44998.0</v>
@@ -1153,8 +1142,8 @@
       <c r="J5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1176,20 +1165,22 @@
     <row r="6">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="17">
-        <v>0.3</v>
-      </c>
-      <c r="G6" s="18">
-        <v>1.0</v>
+        <f t="shared" ref="F6:G6" si="3">1/8*2</f>
+        <v>0.25</v>
+      </c>
+      <c r="G6" s="17">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
       </c>
       <c r="H6" s="11">
         <v>44998.0</v>
@@ -1229,12 +1220,12 @@
         <v>28</v>
       </c>
       <c r="F7" s="20">
-        <f t="shared" ref="F7:G7" si="1">SUM(F4:F6)</f>
-        <v>3.3</v>
+        <f t="shared" ref="F7:G7" si="4">SUM(F4:F6)</f>
+        <v>1</v>
       </c>
       <c r="G7" s="20">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="H7" s="23">
         <v>44998.0</v>
@@ -1277,194 +1268,200 @@
       <c r="E8" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="29">
-        <v>1.5</v>
-      </c>
-      <c r="G8" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="H8" s="31">
+      <c r="F8" s="10">
+        <f t="shared" ref="F8:G8" si="5">1/8*3</f>
+        <v>0.375</v>
+      </c>
+      <c r="G8" s="10">
+        <f t="shared" si="5"/>
+        <v>0.375</v>
+      </c>
+      <c r="H8" s="29">
         <v>44999.0</v>
       </c>
       <c r="I8" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="32" t="s">
+      <c r="J8" s="30" t="s">
         <v>24</v>
       </c>
       <c r="K8" s="27"/>
       <c r="L8" s="27"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="33"/>
-      <c r="AB8" s="33"/>
-      <c r="AC8" s="33"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="31"/>
+      <c r="AA8" s="31"/>
+      <c r="AB8" s="31"/>
+      <c r="AC8" s="31"/>
     </row>
     <row r="9">
-      <c r="A9" s="34"/>
-      <c r="B9" s="35"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="38">
-        <v>1.5</v>
-      </c>
-      <c r="G9" s="39">
-        <v>1.0</v>
-      </c>
-      <c r="H9" s="40">
+      <c r="F9" s="10">
+        <f t="shared" ref="F9:G9" si="6">1/8*3</f>
+        <v>0.375</v>
+      </c>
+      <c r="G9" s="10">
+        <f t="shared" si="6"/>
+        <v>0.375</v>
+      </c>
+      <c r="H9" s="36">
         <v>44999.0</v>
       </c>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="41" t="s">
+      <c r="J9" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="33"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="31"/>
+      <c r="AA9" s="31"/>
+      <c r="AB9" s="31"/>
+      <c r="AC9" s="31"/>
     </row>
     <row r="10">
-      <c r="A10" s="42"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="36" t="s">
+      <c r="A10" s="38"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="45">
-        <v>0.3</v>
-      </c>
-      <c r="G10" s="46">
-        <v>1.0</v>
-      </c>
-      <c r="H10" s="40">
+      <c r="F10" s="17">
+        <f t="shared" ref="F10:G10" si="7">1/8*2</f>
+        <v>0.25</v>
+      </c>
+      <c r="G10" s="17">
+        <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+      <c r="H10" s="36">
         <v>44999.0</v>
       </c>
-      <c r="I10" s="44" t="s">
+      <c r="I10" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="41" t="s">
+      <c r="J10" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="33"/>
-      <c r="AB10" s="33"/>
-      <c r="AC10" s="33"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="31"/>
+      <c r="AB10" s="31"/>
+      <c r="AC10" s="31"/>
     </row>
     <row r="11">
-      <c r="A11" s="48"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49" t="s">
+      <c r="A11" s="42"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="50">
-        <f t="shared" ref="F11:G11" si="2">SUM(F8:F10)</f>
-        <v>3.3</v>
-      </c>
-      <c r="G11" s="51">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="H11" s="52">
+      <c r="F11" s="44">
+        <f t="shared" ref="F11:G11" si="8">SUM(F8:F10)</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="45">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H11" s="46">
         <v>44999.0</v>
       </c>
-      <c r="I11" s="53" t="s">
+      <c r="I11" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="54"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="33"/>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="33"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="31"/>
+      <c r="AA11" s="31"/>
+      <c r="AB11" s="31"/>
+      <c r="AC11" s="31"/>
     </row>
     <row r="12">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="56">
-        <v>0.666</v>
+      <c r="F12" s="50">
+        <v>0.25</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="11">
@@ -1476,8 +1473,8 @@
       <c r="J12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1497,17 +1494,17 @@
       <c r="AC12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="6"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="56">
-        <v>0.666</v>
+      <c r="F13" s="50">
+        <v>0.25</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="11">
@@ -1519,8 +1516,8 @@
       <c r="J13" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -1540,17 +1537,17 @@
       <c r="AC13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="6"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="57">
-        <v>0.333</v>
+      <c r="F14" s="50">
+        <v>0.125</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="11">
@@ -1562,8 +1559,8 @@
       <c r="J14" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -1583,17 +1580,17 @@
       <c r="AC14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="6"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="56">
-        <v>0.666</v>
+      <c r="F15" s="50">
+        <v>0.25</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="11">
@@ -1605,8 +1602,8 @@
       <c r="J15" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -1626,17 +1623,17 @@
       <c r="AC15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="6"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
-      <c r="D16" s="58" t="s">
+      <c r="D16" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="59" t="s">
+      <c r="E16" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="57">
-        <v>0.333</v>
+      <c r="F16" s="50">
+        <v>0.125</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="11">
@@ -1648,8 +1645,8 @@
       <c r="J16" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -1669,17 +1666,17 @@
       <c r="AC16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="6"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="59" t="s">
+      <c r="E17" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="56">
-        <v>1.0</v>
+      <c r="F17" s="50">
+        <v>0.375</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="11">
@@ -1691,8 +1688,8 @@
       <c r="J17" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -1712,17 +1709,18 @@
       <c r="AC17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="6"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
-      <c r="D18" s="58" t="s">
+      <c r="D18" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="59" t="s">
+      <c r="E18" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="57">
-        <v>0.333</v>
+      <c r="F18" s="53">
+        <f t="shared" ref="F18:F24" si="9">1/8*1</f>
+        <v>0.125</v>
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="11">
@@ -1734,8 +1732,8 @@
       <c r="J18" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -1755,17 +1753,18 @@
       <c r="AC18" s="2"/>
     </row>
     <row r="19">
-      <c r="A19" s="6"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
-      <c r="D19" s="58" t="s">
+      <c r="D19" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="59" t="s">
+      <c r="E19" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="57">
-        <v>0.333</v>
+      <c r="F19" s="53">
+        <f t="shared" si="9"/>
+        <v>0.125</v>
       </c>
       <c r="G19" s="12"/>
       <c r="H19" s="11">
@@ -1777,8 +1776,8 @@
       <c r="J19" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -1798,17 +1797,18 @@
       <c r="AC19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="6"/>
+      <c r="A20" s="7"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
-      <c r="D20" s="58" t="s">
+      <c r="D20" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="59" t="s">
+      <c r="E20" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="57">
-        <v>0.333</v>
+      <c r="F20" s="53">
+        <f t="shared" si="9"/>
+        <v>0.125</v>
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="11">
@@ -1820,8 +1820,8 @@
       <c r="J20" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -1841,17 +1841,18 @@
       <c r="AC20" s="2"/>
     </row>
     <row r="21">
-      <c r="A21" s="6"/>
+      <c r="A21" s="7"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
-      <c r="D21" s="58" t="s">
+      <c r="D21" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="59" t="s">
+      <c r="E21" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="57">
-        <v>0.333</v>
+      <c r="F21" s="53">
+        <f t="shared" si="9"/>
+        <v>0.125</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="11">
@@ -1863,8 +1864,8 @@
       <c r="J21" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -1884,17 +1885,18 @@
       <c r="AC21" s="2"/>
     </row>
     <row r="22">
-      <c r="A22" s="6"/>
+      <c r="A22" s="7"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
-      <c r="D22" s="58" t="s">
+      <c r="D22" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="59" t="s">
+      <c r="E22" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="57">
-        <v>0.333</v>
+      <c r="F22" s="53">
+        <f t="shared" si="9"/>
+        <v>0.125</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="11">
@@ -1906,8 +1908,8 @@
       <c r="J22" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -1927,17 +1929,18 @@
       <c r="AC22" s="2"/>
     </row>
     <row r="23">
-      <c r="A23" s="6"/>
+      <c r="A23" s="7"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="59" t="s">
+      <c r="E23" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="57">
-        <v>0.333</v>
+      <c r="F23" s="53">
+        <f t="shared" si="9"/>
+        <v>0.125</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="11">
@@ -1949,8 +1952,8 @@
       <c r="J23" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -1970,17 +1973,18 @@
       <c r="AC23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="6"/>
+      <c r="A24" s="7"/>
       <c r="B24" s="13"/>
       <c r="C24" s="16"/>
-      <c r="D24" s="58" t="s">
+      <c r="D24" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="59" t="s">
+      <c r="E24" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="F24" s="57">
-        <v>0.333</v>
+      <c r="F24" s="53">
+        <f t="shared" si="9"/>
+        <v>0.125</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="11">
@@ -1992,8 +1996,8 @@
       <c r="J24" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -2013,19 +2017,20 @@
       <c r="AC24" s="2"/>
     </row>
     <row r="25">
-      <c r="A25" s="6"/>
+      <c r="A25" s="7"/>
       <c r="B25" s="13"/>
-      <c r="C25" s="60" t="s">
+      <c r="C25" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="57">
-        <v>0.999</v>
+      <c r="F25" s="53">
+        <f>1/8*3</f>
+        <v>0.375</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="11">
@@ -2037,8 +2042,8 @@
       <c r="J25" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -2065,12 +2070,12 @@
       <c r="E26" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="61">
+      <c r="F26" s="55">
         <f>SUM(F12:F25)</f>
-        <v>6.994</v>
+        <v>2.625</v>
       </c>
       <c r="G26" s="20"/>
-      <c r="H26" s="62"/>
+      <c r="H26" s="56"/>
       <c r="I26" s="24" t="s">
         <v>34</v>
       </c>
@@ -2096,23 +2101,24 @@
       <c r="AC26" s="2"/>
     </row>
     <row r="27">
-      <c r="A27" s="63"/>
-      <c r="B27" s="7" t="s">
+      <c r="A27" s="57"/>
+      <c r="B27" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="57">
-        <v>1.5</v>
-      </c>
-      <c r="G27" s="10"/>
+      <c r="F27" s="53">
+        <f t="shared" ref="F27:F28" si="10">1/8*4</f>
+        <v>0.5</v>
+      </c>
+      <c r="G27" s="58"/>
       <c r="H27" s="11">
         <v>45002.0</v>
       </c>
@@ -2122,8 +2128,8 @@
       <c r="J27" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -2143,19 +2149,20 @@
       <c r="AC27" s="2"/>
     </row>
     <row r="28">
-      <c r="A28" s="63"/>
+      <c r="A28" s="57"/>
       <c r="B28" s="16"/>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F28" s="57">
-        <v>1.5</v>
+      <c r="F28" s="53">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="11">
@@ -2167,8 +2174,8 @@
       <c r="J28" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -2195,12 +2202,12 @@
       <c r="E29" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="61">
+      <c r="F29" s="55">
         <f>SUM(F27:F28)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G29" s="20"/>
-      <c r="H29" s="62"/>
+      <c r="H29" s="56"/>
       <c r="I29" s="24" t="s">
         <v>34</v>
       </c>
@@ -2226,21 +2233,22 @@
       <c r="AC29" s="2"/>
     </row>
     <row r="30">
-      <c r="A30" s="6"/>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="7"/>
+      <c r="B30" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="64" t="s">
+      <c r="E30" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="F30" s="57">
-        <v>0.999</v>
+      <c r="F30" s="53">
+        <f>1/8*3</f>
+        <v>0.375</v>
       </c>
       <c r="G30" s="12"/>
       <c r="H30" s="11">
@@ -2252,8 +2260,8 @@
       <c r="J30" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -2280,12 +2288,12 @@
       <c r="E31" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="61">
+      <c r="F31" s="55">
         <f>SUM(F30)</f>
-        <v>0.999</v>
-      </c>
-      <c r="G31" s="65"/>
-      <c r="H31" s="62"/>
+        <v>0.375</v>
+      </c>
+      <c r="G31" s="60"/>
+      <c r="H31" s="56"/>
       <c r="I31" s="20"/>
       <c r="J31" s="20"/>
       <c r="K31" s="20"/>
@@ -2309,23 +2317,24 @@
       <c r="AC31" s="2"/>
     </row>
     <row r="32">
-      <c r="A32" s="6"/>
-      <c r="B32" s="9" t="s">
+      <c r="A32" s="7"/>
+      <c r="B32" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F32" s="56">
-        <v>2.0</v>
-      </c>
-      <c r="G32" s="9"/>
+      <c r="F32" s="50">
+        <f t="shared" ref="F32:F33" si="11">1/8*6</f>
+        <v>0.75</v>
+      </c>
+      <c r="G32" s="10"/>
       <c r="H32" s="11">
         <v>45005.0</v>
       </c>
@@ -2335,8 +2344,8 @@
       <c r="J32" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -2356,21 +2365,22 @@
       <c r="AC32" s="2"/>
     </row>
     <row r="33">
-      <c r="A33" s="6"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9" t="s">
+      <c r="A33" s="7"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F33" s="56">
-        <v>2.0</v>
-      </c>
-      <c r="G33" s="9"/>
+      <c r="F33" s="50">
+        <f t="shared" si="11"/>
+        <v>0.75</v>
+      </c>
+      <c r="G33" s="10"/>
       <c r="H33" s="11">
         <v>45006.0</v>
       </c>
@@ -2380,8 +2390,8 @@
       <c r="J33" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -2401,19 +2411,20 @@
       <c r="AC33" s="2"/>
     </row>
     <row r="34">
-      <c r="A34" s="63"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9" t="s">
+      <c r="A34" s="57"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="55" t="s">
+      <c r="D34" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F34" s="57">
-        <v>1.332</v>
+      <c r="F34" s="53">
+        <f t="shared" ref="F34:F35" si="12">1/8*4</f>
+        <v>0.5</v>
       </c>
       <c r="H34" s="11">
         <v>45006.0</v>
@@ -2424,8 +2435,8 @@
       <c r="J34" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -2445,19 +2456,20 @@
       <c r="AC34" s="2"/>
     </row>
     <row r="35">
-      <c r="A35" s="63"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="55" t="s">
+      <c r="A35" s="57"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F35" s="57">
-        <v>1.33</v>
-      </c>
-      <c r="G35" s="9"/>
+      <c r="F35" s="53">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="G35" s="10"/>
       <c r="H35" s="11">
         <v>45007.0</v>
       </c>
@@ -2467,8 +2479,8 @@
       <c r="J35" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -2488,19 +2500,20 @@
       <c r="AC35" s="2"/>
     </row>
     <row r="36">
-      <c r="A36" s="63"/>
+      <c r="A36" s="57"/>
       <c r="B36" s="25"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="55" t="s">
+      <c r="C36" s="10"/>
+      <c r="D36" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F36" s="56">
-        <v>1.0</v>
-      </c>
-      <c r="G36" s="9"/>
+      <c r="F36" s="50">
+        <f>1/8*3</f>
+        <v>0.375</v>
+      </c>
+      <c r="G36" s="10"/>
       <c r="H36" s="11">
         <v>45007.0</v>
       </c>
@@ -2510,8 +2523,8 @@
       <c r="J36" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -2531,19 +2544,20 @@
       <c r="AC36" s="2"/>
     </row>
     <row r="37">
-      <c r="A37" s="63"/>
+      <c r="A37" s="57"/>
       <c r="B37" s="25"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="55" t="s">
+      <c r="C37" s="10"/>
+      <c r="D37" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F37" s="57">
-        <v>1.332</v>
-      </c>
-      <c r="G37" s="9"/>
+      <c r="F37" s="53">
+        <f>1/8*4</f>
+        <v>0.5</v>
+      </c>
+      <c r="G37" s="10"/>
       <c r="H37" s="11">
         <v>45008.0</v>
       </c>
@@ -2553,8 +2567,8 @@
       <c r="J37" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -2574,19 +2588,20 @@
       <c r="AC37" s="2"/>
     </row>
     <row r="38">
-      <c r="A38" s="63"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="55" t="s">
+      <c r="A38" s="57"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F38" s="57">
-        <v>0.66</v>
-      </c>
-      <c r="G38" s="9"/>
+      <c r="F38" s="53">
+        <f>1/8*2</f>
+        <v>0.25</v>
+      </c>
+      <c r="G38" s="10"/>
       <c r="H38" s="11">
         <v>45008.0</v>
       </c>
@@ -2596,8 +2611,8 @@
       <c r="J38" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -2617,19 +2632,20 @@
       <c r="AC38" s="2"/>
     </row>
     <row r="39">
-      <c r="A39" s="63"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="58" t="s">
+      <c r="A39" s="57"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="E39" s="59" t="s">
+      <c r="E39" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="F39" s="56">
-        <v>2.0</v>
-      </c>
-      <c r="G39" s="9"/>
+      <c r="F39" s="50">
+        <f>1/8*6</f>
+        <v>0.75</v>
+      </c>
+      <c r="G39" s="10"/>
       <c r="H39" s="11">
         <v>45009.0</v>
       </c>
@@ -2639,8 +2655,8 @@
       <c r="J39" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -2660,19 +2676,20 @@
       <c r="AC39" s="2"/>
     </row>
     <row r="40">
-      <c r="A40" s="63"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="58" t="s">
+      <c r="A40" s="57"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="E40" s="59" t="s">
+      <c r="E40" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="F40" s="56">
-        <v>9.0</v>
-      </c>
-      <c r="G40" s="9"/>
+      <c r="F40" s="50">
+        <f>1/8*24</f>
+        <v>3</v>
+      </c>
+      <c r="G40" s="10"/>
       <c r="H40" s="11">
         <v>45013.0</v>
       </c>
@@ -2682,8 +2699,8 @@
       <c r="J40" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -2703,19 +2720,20 @@
       <c r="AC40" s="2"/>
     </row>
     <row r="41">
-      <c r="A41" s="63"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="58" t="s">
+      <c r="A41" s="57"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="E41" s="59" t="s">
+      <c r="E41" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="F41" s="56">
-        <v>1.33</v>
-      </c>
-      <c r="G41" s="9"/>
+      <c r="F41" s="50">
+        <f>1/8*4</f>
+        <v>0.5</v>
+      </c>
+      <c r="G41" s="10"/>
       <c r="H41" s="11">
         <v>45014.0</v>
       </c>
@@ -2725,8 +2743,8 @@
       <c r="J41" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -2746,19 +2764,20 @@
       <c r="AC41" s="2"/>
     </row>
     <row r="42">
-      <c r="A42" s="63"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="58" t="s">
+      <c r="A42" s="57"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="E42" s="59" t="s">
+      <c r="E42" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="F42" s="56">
-        <v>2.0</v>
-      </c>
-      <c r="G42" s="9"/>
+      <c r="F42" s="50">
+        <f>1/8*6</f>
+        <v>0.75</v>
+      </c>
+      <c r="G42" s="10"/>
       <c r="H42" s="11">
         <v>45014.0</v>
       </c>
@@ -2768,8 +2787,8 @@
       <c r="J42" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -2789,19 +2808,20 @@
       <c r="AC42" s="2"/>
     </row>
     <row r="43">
-      <c r="A43" s="63"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="58" t="s">
+      <c r="A43" s="57"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="59" t="s">
+      <c r="E43" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="F43" s="57">
-        <v>0.66</v>
-      </c>
-      <c r="G43" s="9"/>
+      <c r="F43" s="53">
+        <f t="shared" ref="F43:F47" si="13">1/8*2</f>
+        <v>0.25</v>
+      </c>
+      <c r="G43" s="10"/>
       <c r="H43" s="11">
         <v>45015.0</v>
       </c>
@@ -2811,8 +2831,8 @@
       <c r="J43" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -2832,19 +2852,20 @@
       <c r="AC43" s="2"/>
     </row>
     <row r="44">
-      <c r="A44" s="63"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="58" t="s">
+      <c r="A44" s="57"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="E44" s="59" t="s">
+      <c r="E44" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="F44" s="57">
-        <v>0.66</v>
-      </c>
-      <c r="G44" s="9"/>
+      <c r="F44" s="53">
+        <f t="shared" si="13"/>
+        <v>0.25</v>
+      </c>
+      <c r="G44" s="10"/>
       <c r="H44" s="11">
         <v>45015.0</v>
       </c>
@@ -2854,8 +2875,8 @@
       <c r="J44" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -2875,19 +2896,20 @@
       <c r="AC44" s="2"/>
     </row>
     <row r="45">
-      <c r="A45" s="63"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="58" t="s">
+      <c r="A45" s="57"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="E45" s="59" t="s">
+      <c r="E45" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="F45" s="57">
-        <v>0.66</v>
-      </c>
-      <c r="G45" s="9"/>
+      <c r="F45" s="53">
+        <f t="shared" si="13"/>
+        <v>0.25</v>
+      </c>
+      <c r="G45" s="10"/>
       <c r="H45" s="11">
         <v>45015.0</v>
       </c>
@@ -2897,8 +2919,8 @@
       <c r="J45" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -2918,19 +2940,20 @@
       <c r="AC45" s="2"/>
     </row>
     <row r="46">
-      <c r="A46" s="63"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="58" t="s">
+      <c r="A46" s="57"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="E46" s="59" t="s">
+      <c r="E46" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="F46" s="57">
-        <v>0.66</v>
-      </c>
-      <c r="G46" s="9"/>
+      <c r="F46" s="53">
+        <f t="shared" si="13"/>
+        <v>0.25</v>
+      </c>
+      <c r="G46" s="10"/>
       <c r="H46" s="11">
         <v>45015.0</v>
       </c>
@@ -2940,8 +2963,8 @@
       <c r="J46" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -2961,19 +2984,20 @@
       <c r="AC46" s="2"/>
     </row>
     <row r="47">
-      <c r="A47" s="63"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="58" t="s">
+      <c r="A47" s="57"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="E47" s="59" t="s">
+      <c r="E47" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="F47" s="57">
-        <v>0.66</v>
-      </c>
-      <c r="G47" s="9"/>
+      <c r="F47" s="53">
+        <f t="shared" si="13"/>
+        <v>0.25</v>
+      </c>
+      <c r="G47" s="10"/>
       <c r="H47" s="11">
         <v>45015.0</v>
       </c>
@@ -2983,8 +3007,8 @@
       <c r="J47" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -3004,19 +3028,19 @@
       <c r="AC47" s="2"/>
     </row>
     <row r="48">
-      <c r="A48" s="66"/>
+      <c r="A48" s="61"/>
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
       <c r="D48" s="20"/>
       <c r="E48" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F48" s="61">
-        <f t="shared" ref="F48:G48" si="3">SUM(F32:F43)</f>
-        <v>24.644</v>
+      <c r="F48" s="55">
+        <f t="shared" ref="F48:G48" si="14">SUM(F32:F43)</f>
+        <v>8.875</v>
       </c>
       <c r="G48" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H48" s="23">
@@ -3045,23 +3069,24 @@
       <c r="AC48" s="2"/>
     </row>
     <row r="49">
-      <c r="A49" s="63"/>
-      <c r="B49" s="9" t="s">
+      <c r="A49" s="57"/>
+      <c r="B49" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E49" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="F49" s="57">
-        <v>1.998</v>
-      </c>
-      <c r="G49" s="9"/>
+      <c r="F49" s="53">
+        <f>1/8*6</f>
+        <v>0.75</v>
+      </c>
+      <c r="G49" s="10"/>
       <c r="H49" s="11">
         <v>45016.0</v>
       </c>
@@ -3071,8 +3096,8 @@
       <c r="J49" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -3092,21 +3117,22 @@
       <c r="AC49" s="2"/>
     </row>
     <row r="50">
-      <c r="A50" s="63"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9" t="s">
+      <c r="A50" s="57"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F50" s="56">
-        <v>1.33</v>
-      </c>
-      <c r="G50" s="9"/>
+      <c r="F50" s="50">
+        <f>1/8*4</f>
+        <v>0.5</v>
+      </c>
+      <c r="G50" s="10"/>
       <c r="H50" s="11">
         <v>45016.0</v>
       </c>
@@ -3116,8 +3142,8 @@
       <c r="J50" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -3137,19 +3163,19 @@
       <c r="AC50" s="2"/>
     </row>
     <row r="51">
-      <c r="A51" s="66"/>
+      <c r="A51" s="61"/>
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
       <c r="E51" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="61">
-        <f t="shared" ref="F51:G51" si="4">SUM(F49:F50)</f>
-        <v>3.328</v>
+      <c r="F51" s="55">
+        <f t="shared" ref="F51:G51" si="15">SUM(F49:F50)</f>
+        <v>1.25</v>
       </c>
       <c r="G51" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H51" s="23">
@@ -3178,23 +3204,24 @@
       <c r="AC51" s="2"/>
     </row>
     <row r="52">
-      <c r="A52" s="63"/>
-      <c r="B52" s="9" t="s">
+      <c r="A52" s="57"/>
+      <c r="B52" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E52" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="F52" s="57">
-        <v>1.33</v>
-      </c>
-      <c r="G52" s="9"/>
+      <c r="F52" s="53">
+        <f>1/8*14</f>
+        <v>1.75</v>
+      </c>
+      <c r="G52" s="10"/>
       <c r="H52" s="11">
         <v>45019.0</v>
       </c>
@@ -3204,8 +3231,8 @@
       <c r="J52" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -3225,21 +3252,22 @@
       <c r="AC52" s="2"/>
     </row>
     <row r="53">
-      <c r="A53" s="63"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9" t="s">
+      <c r="A53" s="57"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="E53" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F53" s="56">
-        <v>1.0</v>
-      </c>
-      <c r="G53" s="9"/>
+      <c r="F53" s="50">
+        <f>1/8*3</f>
+        <v>0.375</v>
+      </c>
+      <c r="G53" s="10"/>
       <c r="H53" s="11">
         <v>45019.0</v>
       </c>
@@ -3249,8 +3277,8 @@
       <c r="J53" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -3270,19 +3298,19 @@
       <c r="AC53" s="2"/>
     </row>
     <row r="54">
-      <c r="A54" s="66"/>
+      <c r="A54" s="61"/>
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
       <c r="E54" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F54" s="61">
-        <f t="shared" ref="F54:G54" si="5">SUM(F52:F53)</f>
-        <v>2.33</v>
+      <c r="F54" s="55">
+        <f t="shared" ref="F54:G54" si="16">SUM(F52:F53)</f>
+        <v>2.125</v>
       </c>
       <c r="G54" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H54" s="23">
@@ -3311,23 +3339,24 @@
       <c r="AC54" s="2"/>
     </row>
     <row r="55">
-      <c r="A55" s="63"/>
-      <c r="B55" s="9" t="s">
+      <c r="A55" s="57"/>
+      <c r="B55" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="D55" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E55" s="9" t="s">
+      <c r="E55" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F55" s="57">
-        <v>2.0</v>
-      </c>
-      <c r="G55" s="9"/>
+      <c r="F55" s="53">
+        <f>1/8*6</f>
+        <v>0.75</v>
+      </c>
+      <c r="G55" s="10"/>
       <c r="H55" s="11">
         <v>45019.0</v>
       </c>
@@ -3337,8 +3366,8 @@
       <c r="J55" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K55" s="9"/>
-      <c r="L55" s="9"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -3358,19 +3387,19 @@
       <c r="AC55" s="2"/>
     </row>
     <row r="56">
-      <c r="A56" s="66"/>
+      <c r="A56" s="61"/>
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
       <c r="E56" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F56" s="61">
-        <f t="shared" ref="F56:G56" si="6">SUM(F55)</f>
-        <v>2</v>
+      <c r="F56" s="55">
+        <f t="shared" ref="F56:G56" si="17">SUM(F55)</f>
+        <v>0.75</v>
       </c>
       <c r="G56" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H56" s="23">
@@ -3399,7 +3428,7 @@
       <c r="AC56" s="2"/>
     </row>
     <row r="57">
-      <c r="A57" s="67"/>
+      <c r="A57" s="62"/>
       <c r="B57" s="17" t="s">
         <v>101</v>
       </c>
@@ -3413,7 +3442,8 @@
         <v>103</v>
       </c>
       <c r="F57" s="18">
-        <v>2.33</v>
+        <f>1/8*7</f>
+        <v>0.875</v>
       </c>
       <c r="G57" s="17"/>
       <c r="H57" s="11">
@@ -3425,8 +3455,8 @@
       <c r="J57" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K57" s="68"/>
-      <c r="L57" s="68"/>
+      <c r="K57" s="63"/>
+      <c r="L57" s="63"/>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -3446,7 +3476,7 @@
       <c r="AC57" s="2"/>
     </row>
     <row r="58">
-      <c r="A58" s="66"/>
+      <c r="A58" s="61"/>
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
       <c r="D58" s="20"/>
@@ -3455,7 +3485,7 @@
       </c>
       <c r="F58" s="20">
         <f>SUM(F57)</f>
-        <v>2.33</v>
+        <v>0.875</v>
       </c>
       <c r="G58" s="24">
         <v>0.0</v>
@@ -3486,7 +3516,7 @@
       <c r="AC58" s="2"/>
     </row>
     <row r="59">
-      <c r="A59" s="67"/>
+      <c r="A59" s="62"/>
       <c r="B59" s="18" t="s">
         <v>104</v>
       </c>
@@ -3500,10 +3530,11 @@
         <v>105</v>
       </c>
       <c r="F59" s="17">
-        <v>0.33</v>
+        <f>1/8*1</f>
+        <v>0.125</v>
       </c>
       <c r="G59" s="17"/>
-      <c r="H59" s="69">
+      <c r="H59" s="64">
         <v>45021.0</v>
       </c>
       <c r="I59" s="12" t="s">
@@ -3512,8 +3543,8 @@
       <c r="J59" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K59" s="68"/>
-      <c r="L59" s="68"/>
+      <c r="K59" s="63"/>
+      <c r="L59" s="63"/>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -3533,7 +3564,7 @@
       <c r="AC59" s="2"/>
     </row>
     <row r="60">
-      <c r="A60" s="66"/>
+      <c r="A60" s="61"/>
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
       <c r="D60" s="20"/>
@@ -3541,11 +3572,11 @@
         <v>28</v>
       </c>
       <c r="F60" s="20">
-        <f t="shared" ref="F60:G60" si="7">SUM(F59)</f>
-        <v>0.33</v>
+        <f t="shared" ref="F60:G60" si="18">SUM(F59)</f>
+        <v>0.125</v>
       </c>
       <c r="G60" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H60" s="23">
@@ -3574,21 +3605,21 @@
       <c r="AC60" s="2"/>
     </row>
     <row r="61">
-      <c r="A61" s="70"/>
-      <c r="B61" s="71"/>
-      <c r="C61" s="71"/>
-      <c r="D61" s="71"/>
-      <c r="E61" s="71"/>
-      <c r="F61" s="71">
+      <c r="A61" s="65"/>
+      <c r="B61" s="66"/>
+      <c r="C61" s="66"/>
+      <c r="D61" s="66"/>
+      <c r="E61" s="66"/>
+      <c r="F61" s="66">
         <f>SUM(F4:F60)/2</f>
-        <v>53.875</v>
-      </c>
-      <c r="G61" s="71"/>
-      <c r="H61" s="72"/>
-      <c r="I61" s="73"/>
-      <c r="J61" s="73"/>
-      <c r="K61" s="73"/>
-      <c r="L61" s="73"/>
+        <v>20.5</v>
+      </c>
+      <c r="G61" s="66"/>
+      <c r="H61" s="67"/>
+      <c r="I61" s="68"/>
+      <c r="J61" s="68"/>
+      <c r="K61" s="68"/>
+      <c r="L61" s="68"/>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -3615,7 +3646,7 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
-      <c r="H62" s="74"/>
+      <c r="H62" s="69"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
@@ -3646,7 +3677,7 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-      <c r="H63" s="74"/>
+      <c r="H63" s="69"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
@@ -3677,7 +3708,7 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-      <c r="H64" s="74"/>
+      <c r="H64" s="69"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
@@ -3708,7 +3739,7 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-      <c r="H65" s="74"/>
+      <c r="H65" s="69"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
@@ -3739,7 +3770,7 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
-      <c r="H66" s="74"/>
+      <c r="H66" s="69"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
@@ -3770,7 +3801,7 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
-      <c r="H67" s="74"/>
+      <c r="H67" s="69"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
@@ -9808,2251 +9839,2251 @@
       <c r="AC261" s="2"/>
     </row>
     <row r="262">
-      <c r="H262" s="75"/>
+      <c r="H262" s="70"/>
     </row>
     <row r="263">
-      <c r="H263" s="75"/>
+      <c r="H263" s="70"/>
     </row>
     <row r="264">
-      <c r="H264" s="75"/>
+      <c r="H264" s="70"/>
     </row>
     <row r="265">
-      <c r="H265" s="75"/>
+      <c r="H265" s="70"/>
     </row>
     <row r="266">
-      <c r="H266" s="75"/>
+      <c r="H266" s="70"/>
     </row>
     <row r="267">
-      <c r="H267" s="75"/>
+      <c r="H267" s="70"/>
     </row>
     <row r="268">
-      <c r="H268" s="75"/>
+      <c r="H268" s="70"/>
     </row>
     <row r="269">
-      <c r="H269" s="75"/>
+      <c r="H269" s="70"/>
     </row>
     <row r="270">
-      <c r="H270" s="75"/>
+      <c r="H270" s="70"/>
     </row>
     <row r="271">
-      <c r="H271" s="75"/>
+      <c r="H271" s="70"/>
     </row>
     <row r="272">
-      <c r="H272" s="75"/>
+      <c r="H272" s="70"/>
     </row>
     <row r="273">
-      <c r="H273" s="75"/>
+      <c r="H273" s="70"/>
     </row>
     <row r="274">
-      <c r="H274" s="75"/>
+      <c r="H274" s="70"/>
     </row>
     <row r="275">
-      <c r="H275" s="75"/>
+      <c r="H275" s="70"/>
     </row>
     <row r="276">
-      <c r="H276" s="75"/>
+      <c r="H276" s="70"/>
     </row>
     <row r="277">
-      <c r="H277" s="75"/>
+      <c r="H277" s="70"/>
     </row>
     <row r="278">
-      <c r="H278" s="75"/>
+      <c r="H278" s="70"/>
     </row>
     <row r="279">
-      <c r="H279" s="75"/>
+      <c r="H279" s="70"/>
     </row>
     <row r="280">
-      <c r="H280" s="75"/>
+      <c r="H280" s="70"/>
     </row>
     <row r="281">
-      <c r="H281" s="75"/>
+      <c r="H281" s="70"/>
     </row>
     <row r="282">
-      <c r="H282" s="75"/>
+      <c r="H282" s="70"/>
     </row>
     <row r="283">
-      <c r="H283" s="75"/>
+      <c r="H283" s="70"/>
     </row>
     <row r="284">
-      <c r="H284" s="75"/>
+      <c r="H284" s="70"/>
     </row>
     <row r="285">
-      <c r="H285" s="75"/>
+      <c r="H285" s="70"/>
     </row>
     <row r="286">
-      <c r="H286" s="75"/>
+      <c r="H286" s="70"/>
     </row>
     <row r="287">
-      <c r="H287" s="75"/>
+      <c r="H287" s="70"/>
     </row>
     <row r="288">
-      <c r="H288" s="75"/>
+      <c r="H288" s="70"/>
     </row>
     <row r="289">
-      <c r="H289" s="75"/>
+      <c r="H289" s="70"/>
     </row>
     <row r="290">
-      <c r="H290" s="75"/>
+      <c r="H290" s="70"/>
     </row>
     <row r="291">
-      <c r="H291" s="75"/>
+      <c r="H291" s="70"/>
     </row>
     <row r="292">
-      <c r="H292" s="75"/>
+      <c r="H292" s="70"/>
     </row>
     <row r="293">
-      <c r="H293" s="75"/>
+      <c r="H293" s="70"/>
     </row>
     <row r="294">
-      <c r="H294" s="75"/>
+      <c r="H294" s="70"/>
     </row>
     <row r="295">
-      <c r="H295" s="75"/>
+      <c r="H295" s="70"/>
     </row>
     <row r="296">
-      <c r="H296" s="75"/>
+      <c r="H296" s="70"/>
     </row>
     <row r="297">
-      <c r="H297" s="75"/>
+      <c r="H297" s="70"/>
     </row>
     <row r="298">
-      <c r="H298" s="75"/>
+      <c r="H298" s="70"/>
     </row>
     <row r="299">
-      <c r="H299" s="75"/>
+      <c r="H299" s="70"/>
     </row>
     <row r="300">
-      <c r="H300" s="75"/>
+      <c r="H300" s="70"/>
     </row>
     <row r="301">
-      <c r="H301" s="75"/>
+      <c r="H301" s="70"/>
     </row>
     <row r="302">
-      <c r="H302" s="75"/>
+      <c r="H302" s="70"/>
     </row>
     <row r="303">
-      <c r="H303" s="75"/>
+      <c r="H303" s="70"/>
     </row>
     <row r="304">
-      <c r="H304" s="75"/>
+      <c r="H304" s="70"/>
     </row>
     <row r="305">
-      <c r="H305" s="75"/>
+      <c r="H305" s="70"/>
     </row>
     <row r="306">
-      <c r="H306" s="75"/>
+      <c r="H306" s="70"/>
     </row>
     <row r="307">
-      <c r="H307" s="75"/>
+      <c r="H307" s="70"/>
     </row>
     <row r="308">
-      <c r="H308" s="75"/>
+      <c r="H308" s="70"/>
     </row>
     <row r="309">
-      <c r="H309" s="75"/>
+      <c r="H309" s="70"/>
     </row>
     <row r="310">
-      <c r="H310" s="75"/>
+      <c r="H310" s="70"/>
     </row>
     <row r="311">
-      <c r="H311" s="75"/>
+      <c r="H311" s="70"/>
     </row>
     <row r="312">
-      <c r="H312" s="75"/>
+      <c r="H312" s="70"/>
     </row>
     <row r="313">
-      <c r="H313" s="75"/>
+      <c r="H313" s="70"/>
     </row>
     <row r="314">
-      <c r="H314" s="75"/>
+      <c r="H314" s="70"/>
     </row>
     <row r="315">
-      <c r="H315" s="75"/>
+      <c r="H315" s="70"/>
     </row>
     <row r="316">
-      <c r="H316" s="75"/>
+      <c r="H316" s="70"/>
     </row>
     <row r="317">
-      <c r="H317" s="75"/>
+      <c r="H317" s="70"/>
     </row>
     <row r="318">
-      <c r="H318" s="75"/>
+      <c r="H318" s="70"/>
     </row>
     <row r="319">
-      <c r="H319" s="75"/>
+      <c r="H319" s="70"/>
     </row>
     <row r="320">
-      <c r="H320" s="75"/>
+      <c r="H320" s="70"/>
     </row>
     <row r="321">
-      <c r="H321" s="75"/>
+      <c r="H321" s="70"/>
     </row>
     <row r="322">
-      <c r="H322" s="75"/>
+      <c r="H322" s="70"/>
     </row>
     <row r="323">
-      <c r="H323" s="75"/>
+      <c r="H323" s="70"/>
     </row>
     <row r="324">
-      <c r="H324" s="75"/>
+      <c r="H324" s="70"/>
     </row>
     <row r="325">
-      <c r="H325" s="75"/>
+      <c r="H325" s="70"/>
     </row>
     <row r="326">
-      <c r="H326" s="75"/>
+      <c r="H326" s="70"/>
     </row>
     <row r="327">
-      <c r="H327" s="75"/>
+      <c r="H327" s="70"/>
     </row>
     <row r="328">
-      <c r="H328" s="75"/>
+      <c r="H328" s="70"/>
     </row>
     <row r="329">
-      <c r="H329" s="75"/>
+      <c r="H329" s="70"/>
     </row>
     <row r="330">
-      <c r="H330" s="75"/>
+      <c r="H330" s="70"/>
     </row>
     <row r="331">
-      <c r="H331" s="75"/>
+      <c r="H331" s="70"/>
     </row>
     <row r="332">
-      <c r="H332" s="75"/>
+      <c r="H332" s="70"/>
     </row>
     <row r="333">
-      <c r="H333" s="75"/>
+      <c r="H333" s="70"/>
     </row>
     <row r="334">
-      <c r="H334" s="75"/>
+      <c r="H334" s="70"/>
     </row>
     <row r="335">
-      <c r="H335" s="75"/>
+      <c r="H335" s="70"/>
     </row>
     <row r="336">
-      <c r="H336" s="75"/>
+      <c r="H336" s="70"/>
     </row>
     <row r="337">
-      <c r="H337" s="75"/>
+      <c r="H337" s="70"/>
     </row>
     <row r="338">
-      <c r="H338" s="75"/>
+      <c r="H338" s="70"/>
     </row>
     <row r="339">
-      <c r="H339" s="75"/>
+      <c r="H339" s="70"/>
     </row>
     <row r="340">
-      <c r="H340" s="75"/>
+      <c r="H340" s="70"/>
     </row>
     <row r="341">
-      <c r="H341" s="75"/>
+      <c r="H341" s="70"/>
     </row>
     <row r="342">
-      <c r="H342" s="75"/>
+      <c r="H342" s="70"/>
     </row>
     <row r="343">
-      <c r="H343" s="75"/>
+      <c r="H343" s="70"/>
     </row>
     <row r="344">
-      <c r="H344" s="75"/>
+      <c r="H344" s="70"/>
     </row>
     <row r="345">
-      <c r="H345" s="75"/>
+      <c r="H345" s="70"/>
     </row>
     <row r="346">
-      <c r="H346" s="75"/>
+      <c r="H346" s="70"/>
     </row>
     <row r="347">
-      <c r="H347" s="75"/>
+      <c r="H347" s="70"/>
     </row>
     <row r="348">
-      <c r="H348" s="75"/>
+      <c r="H348" s="70"/>
     </row>
     <row r="349">
-      <c r="H349" s="75"/>
+      <c r="H349" s="70"/>
     </row>
     <row r="350">
-      <c r="H350" s="75"/>
+      <c r="H350" s="70"/>
     </row>
     <row r="351">
-      <c r="H351" s="75"/>
+      <c r="H351" s="70"/>
     </row>
     <row r="352">
-      <c r="H352" s="75"/>
+      <c r="H352" s="70"/>
     </row>
     <row r="353">
-      <c r="H353" s="75"/>
+      <c r="H353" s="70"/>
     </row>
     <row r="354">
-      <c r="H354" s="75"/>
+      <c r="H354" s="70"/>
     </row>
     <row r="355">
-      <c r="H355" s="75"/>
+      <c r="H355" s="70"/>
     </row>
     <row r="356">
-      <c r="H356" s="75"/>
+      <c r="H356" s="70"/>
     </row>
     <row r="357">
-      <c r="H357" s="75"/>
+      <c r="H357" s="70"/>
     </row>
     <row r="358">
-      <c r="H358" s="75"/>
+      <c r="H358" s="70"/>
     </row>
     <row r="359">
-      <c r="H359" s="75"/>
+      <c r="H359" s="70"/>
     </row>
     <row r="360">
-      <c r="H360" s="75"/>
+      <c r="H360" s="70"/>
     </row>
     <row r="361">
-      <c r="H361" s="75"/>
+      <c r="H361" s="70"/>
     </row>
     <row r="362">
-      <c r="H362" s="75"/>
+      <c r="H362" s="70"/>
     </row>
     <row r="363">
-      <c r="H363" s="75"/>
+      <c r="H363" s="70"/>
     </row>
     <row r="364">
-      <c r="H364" s="75"/>
+      <c r="H364" s="70"/>
     </row>
     <row r="365">
-      <c r="H365" s="75"/>
+      <c r="H365" s="70"/>
     </row>
     <row r="366">
-      <c r="H366" s="75"/>
+      <c r="H366" s="70"/>
     </row>
     <row r="367">
-      <c r="H367" s="75"/>
+      <c r="H367" s="70"/>
     </row>
     <row r="368">
-      <c r="H368" s="75"/>
+      <c r="H368" s="70"/>
     </row>
     <row r="369">
-      <c r="H369" s="75"/>
+      <c r="H369" s="70"/>
     </row>
     <row r="370">
-      <c r="H370" s="75"/>
+      <c r="H370" s="70"/>
     </row>
     <row r="371">
-      <c r="H371" s="75"/>
+      <c r="H371" s="70"/>
     </row>
     <row r="372">
-      <c r="H372" s="75"/>
+      <c r="H372" s="70"/>
     </row>
     <row r="373">
-      <c r="H373" s="75"/>
+      <c r="H373" s="70"/>
     </row>
     <row r="374">
-      <c r="H374" s="75"/>
+      <c r="H374" s="70"/>
     </row>
     <row r="375">
-      <c r="H375" s="75"/>
+      <c r="H375" s="70"/>
     </row>
     <row r="376">
-      <c r="H376" s="75"/>
+      <c r="H376" s="70"/>
     </row>
     <row r="377">
-      <c r="H377" s="75"/>
+      <c r="H377" s="70"/>
     </row>
     <row r="378">
-      <c r="H378" s="75"/>
+      <c r="H378" s="70"/>
     </row>
     <row r="379">
-      <c r="H379" s="75"/>
+      <c r="H379" s="70"/>
     </row>
     <row r="380">
-      <c r="H380" s="75"/>
+      <c r="H380" s="70"/>
     </row>
     <row r="381">
-      <c r="H381" s="75"/>
+      <c r="H381" s="70"/>
     </row>
     <row r="382">
-      <c r="H382" s="75"/>
+      <c r="H382" s="70"/>
     </row>
     <row r="383">
-      <c r="H383" s="75"/>
+      <c r="H383" s="70"/>
     </row>
     <row r="384">
-      <c r="H384" s="75"/>
+      <c r="H384" s="70"/>
     </row>
     <row r="385">
-      <c r="H385" s="75"/>
+      <c r="H385" s="70"/>
     </row>
     <row r="386">
-      <c r="H386" s="75"/>
+      <c r="H386" s="70"/>
     </row>
     <row r="387">
-      <c r="H387" s="75"/>
+      <c r="H387" s="70"/>
     </row>
     <row r="388">
-      <c r="H388" s="75"/>
+      <c r="H388" s="70"/>
     </row>
     <row r="389">
-      <c r="H389" s="75"/>
+      <c r="H389" s="70"/>
     </row>
     <row r="390">
-      <c r="H390" s="75"/>
+      <c r="H390" s="70"/>
     </row>
     <row r="391">
-      <c r="H391" s="75"/>
+      <c r="H391" s="70"/>
     </row>
     <row r="392">
-      <c r="H392" s="75"/>
+      <c r="H392" s="70"/>
     </row>
     <row r="393">
-      <c r="H393" s="75"/>
+      <c r="H393" s="70"/>
     </row>
     <row r="394">
-      <c r="H394" s="75"/>
+      <c r="H394" s="70"/>
     </row>
     <row r="395">
-      <c r="H395" s="75"/>
+      <c r="H395" s="70"/>
     </row>
     <row r="396">
-      <c r="H396" s="75"/>
+      <c r="H396" s="70"/>
     </row>
     <row r="397">
-      <c r="H397" s="75"/>
+      <c r="H397" s="70"/>
     </row>
     <row r="398">
-      <c r="H398" s="75"/>
+      <c r="H398" s="70"/>
     </row>
     <row r="399">
-      <c r="H399" s="75"/>
+      <c r="H399" s="70"/>
     </row>
     <row r="400">
-      <c r="H400" s="75"/>
+      <c r="H400" s="70"/>
     </row>
     <row r="401">
-      <c r="H401" s="75"/>
+      <c r="H401" s="70"/>
     </row>
     <row r="402">
-      <c r="H402" s="75"/>
+      <c r="H402" s="70"/>
     </row>
     <row r="403">
-      <c r="H403" s="75"/>
+      <c r="H403" s="70"/>
     </row>
     <row r="404">
-      <c r="H404" s="75"/>
+      <c r="H404" s="70"/>
     </row>
     <row r="405">
-      <c r="H405" s="75"/>
+      <c r="H405" s="70"/>
     </row>
     <row r="406">
-      <c r="H406" s="75"/>
+      <c r="H406" s="70"/>
     </row>
     <row r="407">
-      <c r="H407" s="75"/>
+      <c r="H407" s="70"/>
     </row>
     <row r="408">
-      <c r="H408" s="75"/>
+      <c r="H408" s="70"/>
     </row>
     <row r="409">
-      <c r="H409" s="75"/>
+      <c r="H409" s="70"/>
     </row>
     <row r="410">
-      <c r="H410" s="75"/>
+      <c r="H410" s="70"/>
     </row>
     <row r="411">
-      <c r="H411" s="75"/>
+      <c r="H411" s="70"/>
     </row>
     <row r="412">
-      <c r="H412" s="75"/>
+      <c r="H412" s="70"/>
     </row>
     <row r="413">
-      <c r="H413" s="75"/>
+      <c r="H413" s="70"/>
     </row>
     <row r="414">
-      <c r="H414" s="75"/>
+      <c r="H414" s="70"/>
     </row>
     <row r="415">
-      <c r="H415" s="75"/>
+      <c r="H415" s="70"/>
     </row>
     <row r="416">
-      <c r="H416" s="75"/>
+      <c r="H416" s="70"/>
     </row>
     <row r="417">
-      <c r="H417" s="75"/>
+      <c r="H417" s="70"/>
     </row>
     <row r="418">
-      <c r="H418" s="75"/>
+      <c r="H418" s="70"/>
     </row>
     <row r="419">
-      <c r="H419" s="75"/>
+      <c r="H419" s="70"/>
     </row>
     <row r="420">
-      <c r="H420" s="75"/>
+      <c r="H420" s="70"/>
     </row>
     <row r="421">
-      <c r="H421" s="75"/>
+      <c r="H421" s="70"/>
     </row>
     <row r="422">
-      <c r="H422" s="75"/>
+      <c r="H422" s="70"/>
     </row>
     <row r="423">
-      <c r="H423" s="75"/>
+      <c r="H423" s="70"/>
     </row>
     <row r="424">
-      <c r="H424" s="75"/>
+      <c r="H424" s="70"/>
     </row>
     <row r="425">
-      <c r="H425" s="75"/>
+      <c r="H425" s="70"/>
     </row>
     <row r="426">
-      <c r="H426" s="75"/>
+      <c r="H426" s="70"/>
     </row>
     <row r="427">
-      <c r="H427" s="75"/>
+      <c r="H427" s="70"/>
     </row>
     <row r="428">
-      <c r="H428" s="75"/>
+      <c r="H428" s="70"/>
     </row>
     <row r="429">
-      <c r="H429" s="75"/>
+      <c r="H429" s="70"/>
     </row>
     <row r="430">
-      <c r="H430" s="75"/>
+      <c r="H430" s="70"/>
     </row>
     <row r="431">
-      <c r="H431" s="75"/>
+      <c r="H431" s="70"/>
     </row>
     <row r="432">
-      <c r="H432" s="75"/>
+      <c r="H432" s="70"/>
     </row>
     <row r="433">
-      <c r="H433" s="75"/>
+      <c r="H433" s="70"/>
     </row>
     <row r="434">
-      <c r="H434" s="75"/>
+      <c r="H434" s="70"/>
     </row>
     <row r="435">
-      <c r="H435" s="75"/>
+      <c r="H435" s="70"/>
     </row>
     <row r="436">
-      <c r="H436" s="75"/>
+      <c r="H436" s="70"/>
     </row>
     <row r="437">
-      <c r="H437" s="75"/>
+      <c r="H437" s="70"/>
     </row>
     <row r="438">
-      <c r="H438" s="75"/>
+      <c r="H438" s="70"/>
     </row>
     <row r="439">
-      <c r="H439" s="75"/>
+      <c r="H439" s="70"/>
     </row>
     <row r="440">
-      <c r="H440" s="75"/>
+      <c r="H440" s="70"/>
     </row>
     <row r="441">
-      <c r="H441" s="75"/>
+      <c r="H441" s="70"/>
     </row>
     <row r="442">
-      <c r="H442" s="75"/>
+      <c r="H442" s="70"/>
     </row>
     <row r="443">
-      <c r="H443" s="75"/>
+      <c r="H443" s="70"/>
     </row>
     <row r="444">
-      <c r="H444" s="75"/>
+      <c r="H444" s="70"/>
     </row>
     <row r="445">
-      <c r="H445" s="75"/>
+      <c r="H445" s="70"/>
     </row>
     <row r="446">
-      <c r="H446" s="75"/>
+      <c r="H446" s="70"/>
     </row>
     <row r="447">
-      <c r="H447" s="75"/>
+      <c r="H447" s="70"/>
     </row>
     <row r="448">
-      <c r="H448" s="75"/>
+      <c r="H448" s="70"/>
     </row>
     <row r="449">
-      <c r="H449" s="75"/>
+      <c r="H449" s="70"/>
     </row>
     <row r="450">
-      <c r="H450" s="75"/>
+      <c r="H450" s="70"/>
     </row>
     <row r="451">
-      <c r="H451" s="75"/>
+      <c r="H451" s="70"/>
     </row>
     <row r="452">
-      <c r="H452" s="75"/>
+      <c r="H452" s="70"/>
     </row>
     <row r="453">
-      <c r="H453" s="75"/>
+      <c r="H453" s="70"/>
     </row>
     <row r="454">
-      <c r="H454" s="75"/>
+      <c r="H454" s="70"/>
     </row>
     <row r="455">
-      <c r="H455" s="75"/>
+      <c r="H455" s="70"/>
     </row>
     <row r="456">
-      <c r="H456" s="75"/>
+      <c r="H456" s="70"/>
     </row>
     <row r="457">
-      <c r="H457" s="75"/>
+      <c r="H457" s="70"/>
     </row>
     <row r="458">
-      <c r="H458" s="75"/>
+      <c r="H458" s="70"/>
     </row>
     <row r="459">
-      <c r="H459" s="75"/>
+      <c r="H459" s="70"/>
     </row>
     <row r="460">
-      <c r="H460" s="75"/>
+      <c r="H460" s="70"/>
     </row>
     <row r="461">
-      <c r="H461" s="75"/>
+      <c r="H461" s="70"/>
     </row>
     <row r="462">
-      <c r="H462" s="75"/>
+      <c r="H462" s="70"/>
     </row>
     <row r="463">
-      <c r="H463" s="75"/>
+      <c r="H463" s="70"/>
     </row>
     <row r="464">
-      <c r="H464" s="75"/>
+      <c r="H464" s="70"/>
     </row>
     <row r="465">
-      <c r="H465" s="75"/>
+      <c r="H465" s="70"/>
     </row>
     <row r="466">
-      <c r="H466" s="75"/>
+      <c r="H466" s="70"/>
     </row>
     <row r="467">
-      <c r="H467" s="75"/>
+      <c r="H467" s="70"/>
     </row>
     <row r="468">
-      <c r="H468" s="75"/>
+      <c r="H468" s="70"/>
     </row>
     <row r="469">
-      <c r="H469" s="75"/>
+      <c r="H469" s="70"/>
     </row>
     <row r="470">
-      <c r="H470" s="75"/>
+      <c r="H470" s="70"/>
     </row>
     <row r="471">
-      <c r="H471" s="75"/>
+      <c r="H471" s="70"/>
     </row>
     <row r="472">
-      <c r="H472" s="75"/>
+      <c r="H472" s="70"/>
     </row>
     <row r="473">
-      <c r="H473" s="75"/>
+      <c r="H473" s="70"/>
     </row>
     <row r="474">
-      <c r="H474" s="75"/>
+      <c r="H474" s="70"/>
     </row>
     <row r="475">
-      <c r="H475" s="75"/>
+      <c r="H475" s="70"/>
     </row>
     <row r="476">
-      <c r="H476" s="75"/>
+      <c r="H476" s="70"/>
     </row>
     <row r="477">
-      <c r="H477" s="75"/>
+      <c r="H477" s="70"/>
     </row>
     <row r="478">
-      <c r="H478" s="75"/>
+      <c r="H478" s="70"/>
     </row>
     <row r="479">
-      <c r="H479" s="75"/>
+      <c r="H479" s="70"/>
     </row>
     <row r="480">
-      <c r="H480" s="75"/>
+      <c r="H480" s="70"/>
     </row>
     <row r="481">
-      <c r="H481" s="75"/>
+      <c r="H481" s="70"/>
     </row>
     <row r="482">
-      <c r="H482" s="75"/>
+      <c r="H482" s="70"/>
     </row>
     <row r="483">
-      <c r="H483" s="75"/>
+      <c r="H483" s="70"/>
     </row>
     <row r="484">
-      <c r="H484" s="75"/>
+      <c r="H484" s="70"/>
     </row>
     <row r="485">
-      <c r="H485" s="75"/>
+      <c r="H485" s="70"/>
     </row>
     <row r="486">
-      <c r="H486" s="75"/>
+      <c r="H486" s="70"/>
     </row>
     <row r="487">
-      <c r="H487" s="75"/>
+      <c r="H487" s="70"/>
     </row>
     <row r="488">
-      <c r="H488" s="75"/>
+      <c r="H488" s="70"/>
     </row>
     <row r="489">
-      <c r="H489" s="75"/>
+      <c r="H489" s="70"/>
     </row>
     <row r="490">
-      <c r="H490" s="75"/>
+      <c r="H490" s="70"/>
     </row>
     <row r="491">
-      <c r="H491" s="75"/>
+      <c r="H491" s="70"/>
     </row>
     <row r="492">
-      <c r="H492" s="75"/>
+      <c r="H492" s="70"/>
     </row>
     <row r="493">
-      <c r="H493" s="75"/>
+      <c r="H493" s="70"/>
     </row>
     <row r="494">
-      <c r="H494" s="75"/>
+      <c r="H494" s="70"/>
     </row>
     <row r="495">
-      <c r="H495" s="75"/>
+      <c r="H495" s="70"/>
     </row>
     <row r="496">
-      <c r="H496" s="75"/>
+      <c r="H496" s="70"/>
     </row>
     <row r="497">
-      <c r="H497" s="75"/>
+      <c r="H497" s="70"/>
     </row>
     <row r="498">
-      <c r="H498" s="75"/>
+      <c r="H498" s="70"/>
     </row>
     <row r="499">
-      <c r="H499" s="75"/>
+      <c r="H499" s="70"/>
     </row>
     <row r="500">
-      <c r="H500" s="75"/>
+      <c r="H500" s="70"/>
     </row>
     <row r="501">
-      <c r="H501" s="75"/>
+      <c r="H501" s="70"/>
     </row>
     <row r="502">
-      <c r="H502" s="75"/>
+      <c r="H502" s="70"/>
     </row>
     <row r="503">
-      <c r="H503" s="75"/>
+      <c r="H503" s="70"/>
     </row>
     <row r="504">
-      <c r="H504" s="75"/>
+      <c r="H504" s="70"/>
     </row>
     <row r="505">
-      <c r="H505" s="75"/>
+      <c r="H505" s="70"/>
     </row>
     <row r="506">
-      <c r="H506" s="75"/>
+      <c r="H506" s="70"/>
     </row>
     <row r="507">
-      <c r="H507" s="75"/>
+      <c r="H507" s="70"/>
     </row>
     <row r="508">
-      <c r="H508" s="75"/>
+      <c r="H508" s="70"/>
     </row>
     <row r="509">
-      <c r="H509" s="75"/>
+      <c r="H509" s="70"/>
     </row>
     <row r="510">
-      <c r="H510" s="75"/>
+      <c r="H510" s="70"/>
     </row>
     <row r="511">
-      <c r="H511" s="75"/>
+      <c r="H511" s="70"/>
     </row>
     <row r="512">
-      <c r="H512" s="75"/>
+      <c r="H512" s="70"/>
     </row>
     <row r="513">
-      <c r="H513" s="75"/>
+      <c r="H513" s="70"/>
     </row>
     <row r="514">
-      <c r="H514" s="75"/>
+      <c r="H514" s="70"/>
     </row>
     <row r="515">
-      <c r="H515" s="75"/>
+      <c r="H515" s="70"/>
     </row>
     <row r="516">
-      <c r="H516" s="75"/>
+      <c r="H516" s="70"/>
     </row>
     <row r="517">
-      <c r="H517" s="75"/>
+      <c r="H517" s="70"/>
     </row>
     <row r="518">
-      <c r="H518" s="75"/>
+      <c r="H518" s="70"/>
     </row>
     <row r="519">
-      <c r="H519" s="75"/>
+      <c r="H519" s="70"/>
     </row>
     <row r="520">
-      <c r="H520" s="75"/>
+      <c r="H520" s="70"/>
     </row>
     <row r="521">
-      <c r="H521" s="75"/>
+      <c r="H521" s="70"/>
     </row>
     <row r="522">
-      <c r="H522" s="75"/>
+      <c r="H522" s="70"/>
     </row>
     <row r="523">
-      <c r="H523" s="75"/>
+      <c r="H523" s="70"/>
     </row>
     <row r="524">
-      <c r="H524" s="75"/>
+      <c r="H524" s="70"/>
     </row>
     <row r="525">
-      <c r="H525" s="75"/>
+      <c r="H525" s="70"/>
     </row>
     <row r="526">
-      <c r="H526" s="75"/>
+      <c r="H526" s="70"/>
     </row>
     <row r="527">
-      <c r="H527" s="75"/>
+      <c r="H527" s="70"/>
     </row>
     <row r="528">
-      <c r="H528" s="75"/>
+      <c r="H528" s="70"/>
     </row>
     <row r="529">
-      <c r="H529" s="75"/>
+      <c r="H529" s="70"/>
     </row>
     <row r="530">
-      <c r="H530" s="75"/>
+      <c r="H530" s="70"/>
     </row>
     <row r="531">
-      <c r="H531" s="75"/>
+      <c r="H531" s="70"/>
     </row>
     <row r="532">
-      <c r="H532" s="75"/>
+      <c r="H532" s="70"/>
     </row>
     <row r="533">
-      <c r="H533" s="75"/>
+      <c r="H533" s="70"/>
     </row>
     <row r="534">
-      <c r="H534" s="75"/>
+      <c r="H534" s="70"/>
     </row>
     <row r="535">
-      <c r="H535" s="75"/>
+      <c r="H535" s="70"/>
     </row>
     <row r="536">
-      <c r="H536" s="75"/>
+      <c r="H536" s="70"/>
     </row>
     <row r="537">
-      <c r="H537" s="75"/>
+      <c r="H537" s="70"/>
     </row>
     <row r="538">
-      <c r="H538" s="75"/>
+      <c r="H538" s="70"/>
     </row>
     <row r="539">
-      <c r="H539" s="75"/>
+      <c r="H539" s="70"/>
     </row>
     <row r="540">
-      <c r="H540" s="75"/>
+      <c r="H540" s="70"/>
     </row>
     <row r="541">
-      <c r="H541" s="75"/>
+      <c r="H541" s="70"/>
     </row>
     <row r="542">
-      <c r="H542" s="75"/>
+      <c r="H542" s="70"/>
     </row>
     <row r="543">
-      <c r="H543" s="75"/>
+      <c r="H543" s="70"/>
     </row>
     <row r="544">
-      <c r="H544" s="75"/>
+      <c r="H544" s="70"/>
     </row>
     <row r="545">
-      <c r="H545" s="75"/>
+      <c r="H545" s="70"/>
     </row>
     <row r="546">
-      <c r="H546" s="75"/>
+      <c r="H546" s="70"/>
     </row>
     <row r="547">
-      <c r="H547" s="75"/>
+      <c r="H547" s="70"/>
     </row>
     <row r="548">
-      <c r="H548" s="75"/>
+      <c r="H548" s="70"/>
     </row>
     <row r="549">
-      <c r="H549" s="75"/>
+      <c r="H549" s="70"/>
     </row>
     <row r="550">
-      <c r="H550" s="75"/>
+      <c r="H550" s="70"/>
     </row>
     <row r="551">
-      <c r="H551" s="75"/>
+      <c r="H551" s="70"/>
     </row>
     <row r="552">
-      <c r="H552" s="75"/>
+      <c r="H552" s="70"/>
     </row>
     <row r="553">
-      <c r="H553" s="75"/>
+      <c r="H553" s="70"/>
     </row>
     <row r="554">
-      <c r="H554" s="75"/>
+      <c r="H554" s="70"/>
     </row>
     <row r="555">
-      <c r="H555" s="75"/>
+      <c r="H555" s="70"/>
     </row>
     <row r="556">
-      <c r="H556" s="75"/>
+      <c r="H556" s="70"/>
     </row>
     <row r="557">
-      <c r="H557" s="75"/>
+      <c r="H557" s="70"/>
     </row>
     <row r="558">
-      <c r="H558" s="75"/>
+      <c r="H558" s="70"/>
     </row>
     <row r="559">
-      <c r="H559" s="75"/>
+      <c r="H559" s="70"/>
     </row>
     <row r="560">
-      <c r="H560" s="75"/>
+      <c r="H560" s="70"/>
     </row>
     <row r="561">
-      <c r="H561" s="75"/>
+      <c r="H561" s="70"/>
     </row>
     <row r="562">
-      <c r="H562" s="75"/>
+      <c r="H562" s="70"/>
     </row>
     <row r="563">
-      <c r="H563" s="75"/>
+      <c r="H563" s="70"/>
     </row>
     <row r="564">
-      <c r="H564" s="75"/>
+      <c r="H564" s="70"/>
     </row>
     <row r="565">
-      <c r="H565" s="75"/>
+      <c r="H565" s="70"/>
     </row>
     <row r="566">
-      <c r="H566" s="75"/>
+      <c r="H566" s="70"/>
     </row>
     <row r="567">
-      <c r="H567" s="75"/>
+      <c r="H567" s="70"/>
     </row>
     <row r="568">
-      <c r="H568" s="75"/>
+      <c r="H568" s="70"/>
     </row>
     <row r="569">
-      <c r="H569" s="75"/>
+      <c r="H569" s="70"/>
     </row>
     <row r="570">
-      <c r="H570" s="75"/>
+      <c r="H570" s="70"/>
     </row>
     <row r="571">
-      <c r="H571" s="75"/>
+      <c r="H571" s="70"/>
     </row>
     <row r="572">
-      <c r="H572" s="75"/>
+      <c r="H572" s="70"/>
     </row>
     <row r="573">
-      <c r="H573" s="75"/>
+      <c r="H573" s="70"/>
     </row>
     <row r="574">
-      <c r="H574" s="75"/>
+      <c r="H574" s="70"/>
     </row>
     <row r="575">
-      <c r="H575" s="75"/>
+      <c r="H575" s="70"/>
     </row>
     <row r="576">
-      <c r="H576" s="75"/>
+      <c r="H576" s="70"/>
     </row>
     <row r="577">
-      <c r="H577" s="75"/>
+      <c r="H577" s="70"/>
     </row>
     <row r="578">
-      <c r="H578" s="75"/>
+      <c r="H578" s="70"/>
     </row>
     <row r="579">
-      <c r="H579" s="75"/>
+      <c r="H579" s="70"/>
     </row>
     <row r="580">
-      <c r="H580" s="75"/>
+      <c r="H580" s="70"/>
     </row>
     <row r="581">
-      <c r="H581" s="75"/>
+      <c r="H581" s="70"/>
     </row>
     <row r="582">
-      <c r="H582" s="75"/>
+      <c r="H582" s="70"/>
     </row>
     <row r="583">
-      <c r="H583" s="75"/>
+      <c r="H583" s="70"/>
     </row>
     <row r="584">
-      <c r="H584" s="75"/>
+      <c r="H584" s="70"/>
     </row>
     <row r="585">
-      <c r="H585" s="75"/>
+      <c r="H585" s="70"/>
     </row>
     <row r="586">
-      <c r="H586" s="75"/>
+      <c r="H586" s="70"/>
     </row>
     <row r="587">
-      <c r="H587" s="75"/>
+      <c r="H587" s="70"/>
     </row>
     <row r="588">
-      <c r="H588" s="75"/>
+      <c r="H588" s="70"/>
     </row>
     <row r="589">
-      <c r="H589" s="75"/>
+      <c r="H589" s="70"/>
     </row>
     <row r="590">
-      <c r="H590" s="75"/>
+      <c r="H590" s="70"/>
     </row>
     <row r="591">
-      <c r="H591" s="75"/>
+      <c r="H591" s="70"/>
     </row>
     <row r="592">
-      <c r="H592" s="75"/>
+      <c r="H592" s="70"/>
     </row>
     <row r="593">
-      <c r="H593" s="75"/>
+      <c r="H593" s="70"/>
     </row>
     <row r="594">
-      <c r="H594" s="75"/>
+      <c r="H594" s="70"/>
     </row>
     <row r="595">
-      <c r="H595" s="75"/>
+      <c r="H595" s="70"/>
     </row>
     <row r="596">
-      <c r="H596" s="75"/>
+      <c r="H596" s="70"/>
     </row>
     <row r="597">
-      <c r="H597" s="75"/>
+      <c r="H597" s="70"/>
     </row>
     <row r="598">
-      <c r="H598" s="75"/>
+      <c r="H598" s="70"/>
     </row>
     <row r="599">
-      <c r="H599" s="75"/>
+      <c r="H599" s="70"/>
     </row>
     <row r="600">
-      <c r="H600" s="75"/>
+      <c r="H600" s="70"/>
     </row>
     <row r="601">
-      <c r="H601" s="75"/>
+      <c r="H601" s="70"/>
     </row>
     <row r="602">
-      <c r="H602" s="75"/>
+      <c r="H602" s="70"/>
     </row>
     <row r="603">
-      <c r="H603" s="75"/>
+      <c r="H603" s="70"/>
     </row>
     <row r="604">
-      <c r="H604" s="75"/>
+      <c r="H604" s="70"/>
     </row>
     <row r="605">
-      <c r="H605" s="75"/>
+      <c r="H605" s="70"/>
     </row>
     <row r="606">
-      <c r="H606" s="75"/>
+      <c r="H606" s="70"/>
     </row>
     <row r="607">
-      <c r="H607" s="75"/>
+      <c r="H607" s="70"/>
     </row>
     <row r="608">
-      <c r="H608" s="75"/>
+      <c r="H608" s="70"/>
     </row>
     <row r="609">
-      <c r="H609" s="75"/>
+      <c r="H609" s="70"/>
     </row>
     <row r="610">
-      <c r="H610" s="75"/>
+      <c r="H610" s="70"/>
     </row>
     <row r="611">
-      <c r="H611" s="75"/>
+      <c r="H611" s="70"/>
     </row>
     <row r="612">
-      <c r="H612" s="75"/>
+      <c r="H612" s="70"/>
     </row>
     <row r="613">
-      <c r="H613" s="75"/>
+      <c r="H613" s="70"/>
     </row>
     <row r="614">
-      <c r="H614" s="75"/>
+      <c r="H614" s="70"/>
     </row>
     <row r="615">
-      <c r="H615" s="75"/>
+      <c r="H615" s="70"/>
     </row>
     <row r="616">
-      <c r="H616" s="75"/>
+      <c r="H616" s="70"/>
     </row>
     <row r="617">
-      <c r="H617" s="75"/>
+      <c r="H617" s="70"/>
     </row>
     <row r="618">
-      <c r="H618" s="75"/>
+      <c r="H618" s="70"/>
     </row>
     <row r="619">
-      <c r="H619" s="75"/>
+      <c r="H619" s="70"/>
     </row>
     <row r="620">
-      <c r="H620" s="75"/>
+      <c r="H620" s="70"/>
     </row>
     <row r="621">
-      <c r="H621" s="75"/>
+      <c r="H621" s="70"/>
     </row>
     <row r="622">
-      <c r="H622" s="75"/>
+      <c r="H622" s="70"/>
     </row>
     <row r="623">
-      <c r="H623" s="75"/>
+      <c r="H623" s="70"/>
     </row>
     <row r="624">
-      <c r="H624" s="75"/>
+      <c r="H624" s="70"/>
     </row>
     <row r="625">
-      <c r="H625" s="75"/>
+      <c r="H625" s="70"/>
     </row>
     <row r="626">
-      <c r="H626" s="75"/>
+      <c r="H626" s="70"/>
     </row>
     <row r="627">
-      <c r="H627" s="75"/>
+      <c r="H627" s="70"/>
     </row>
     <row r="628">
-      <c r="H628" s="75"/>
+      <c r="H628" s="70"/>
     </row>
     <row r="629">
-      <c r="H629" s="75"/>
+      <c r="H629" s="70"/>
     </row>
     <row r="630">
-      <c r="H630" s="75"/>
+      <c r="H630" s="70"/>
     </row>
     <row r="631">
-      <c r="H631" s="75"/>
+      <c r="H631" s="70"/>
     </row>
     <row r="632">
-      <c r="H632" s="75"/>
+      <c r="H632" s="70"/>
     </row>
     <row r="633">
-      <c r="H633" s="75"/>
+      <c r="H633" s="70"/>
     </row>
     <row r="634">
-      <c r="H634" s="75"/>
+      <c r="H634" s="70"/>
     </row>
     <row r="635">
-      <c r="H635" s="75"/>
+      <c r="H635" s="70"/>
     </row>
     <row r="636">
-      <c r="H636" s="75"/>
+      <c r="H636" s="70"/>
     </row>
     <row r="637">
-      <c r="H637" s="75"/>
+      <c r="H637" s="70"/>
     </row>
     <row r="638">
-      <c r="H638" s="75"/>
+      <c r="H638" s="70"/>
     </row>
     <row r="639">
-      <c r="H639" s="75"/>
+      <c r="H639" s="70"/>
     </row>
     <row r="640">
-      <c r="H640" s="75"/>
+      <c r="H640" s="70"/>
     </row>
     <row r="641">
-      <c r="H641" s="75"/>
+      <c r="H641" s="70"/>
     </row>
     <row r="642">
-      <c r="H642" s="75"/>
+      <c r="H642" s="70"/>
     </row>
     <row r="643">
-      <c r="H643" s="75"/>
+      <c r="H643" s="70"/>
     </row>
     <row r="644">
-      <c r="H644" s="75"/>
+      <c r="H644" s="70"/>
     </row>
     <row r="645">
-      <c r="H645" s="75"/>
+      <c r="H645" s="70"/>
     </row>
     <row r="646">
-      <c r="H646" s="75"/>
+      <c r="H646" s="70"/>
     </row>
     <row r="647">
-      <c r="H647" s="75"/>
+      <c r="H647" s="70"/>
     </row>
     <row r="648">
-      <c r="H648" s="75"/>
+      <c r="H648" s="70"/>
     </row>
     <row r="649">
-      <c r="H649" s="75"/>
+      <c r="H649" s="70"/>
     </row>
     <row r="650">
-      <c r="H650" s="75"/>
+      <c r="H650" s="70"/>
     </row>
     <row r="651">
-      <c r="H651" s="75"/>
+      <c r="H651" s="70"/>
     </row>
     <row r="652">
-      <c r="H652" s="75"/>
+      <c r="H652" s="70"/>
     </row>
     <row r="653">
-      <c r="H653" s="75"/>
+      <c r="H653" s="70"/>
     </row>
     <row r="654">
-      <c r="H654" s="75"/>
+      <c r="H654" s="70"/>
     </row>
     <row r="655">
-      <c r="H655" s="75"/>
+      <c r="H655" s="70"/>
     </row>
     <row r="656">
-      <c r="H656" s="75"/>
+      <c r="H656" s="70"/>
     </row>
     <row r="657">
-      <c r="H657" s="75"/>
+      <c r="H657" s="70"/>
     </row>
     <row r="658">
-      <c r="H658" s="75"/>
+      <c r="H658" s="70"/>
     </row>
     <row r="659">
-      <c r="H659" s="75"/>
+      <c r="H659" s="70"/>
     </row>
     <row r="660">
-      <c r="H660" s="75"/>
+      <c r="H660" s="70"/>
     </row>
     <row r="661">
-      <c r="H661" s="75"/>
+      <c r="H661" s="70"/>
     </row>
     <row r="662">
-      <c r="H662" s="75"/>
+      <c r="H662" s="70"/>
     </row>
     <row r="663">
-      <c r="H663" s="75"/>
+      <c r="H663" s="70"/>
     </row>
     <row r="664">
-      <c r="H664" s="75"/>
+      <c r="H664" s="70"/>
     </row>
     <row r="665">
-      <c r="H665" s="75"/>
+      <c r="H665" s="70"/>
     </row>
     <row r="666">
-      <c r="H666" s="75"/>
+      <c r="H666" s="70"/>
     </row>
     <row r="667">
-      <c r="H667" s="75"/>
+      <c r="H667" s="70"/>
     </row>
     <row r="668">
-      <c r="H668" s="75"/>
+      <c r="H668" s="70"/>
     </row>
     <row r="669">
-      <c r="H669" s="75"/>
+      <c r="H669" s="70"/>
     </row>
     <row r="670">
-      <c r="H670" s="75"/>
+      <c r="H670" s="70"/>
     </row>
     <row r="671">
-      <c r="H671" s="75"/>
+      <c r="H671" s="70"/>
     </row>
     <row r="672">
-      <c r="H672" s="75"/>
+      <c r="H672" s="70"/>
     </row>
     <row r="673">
-      <c r="H673" s="75"/>
+      <c r="H673" s="70"/>
     </row>
     <row r="674">
-      <c r="H674" s="75"/>
+      <c r="H674" s="70"/>
     </row>
     <row r="675">
-      <c r="H675" s="75"/>
+      <c r="H675" s="70"/>
     </row>
     <row r="676">
-      <c r="H676" s="75"/>
+      <c r="H676" s="70"/>
     </row>
     <row r="677">
-      <c r="H677" s="75"/>
+      <c r="H677" s="70"/>
     </row>
     <row r="678">
-      <c r="H678" s="75"/>
+      <c r="H678" s="70"/>
     </row>
     <row r="679">
-      <c r="H679" s="75"/>
+      <c r="H679" s="70"/>
     </row>
     <row r="680">
-      <c r="H680" s="75"/>
+      <c r="H680" s="70"/>
     </row>
     <row r="681">
-      <c r="H681" s="75"/>
+      <c r="H681" s="70"/>
     </row>
     <row r="682">
-      <c r="H682" s="75"/>
+      <c r="H682" s="70"/>
     </row>
     <row r="683">
-      <c r="H683" s="75"/>
+      <c r="H683" s="70"/>
     </row>
     <row r="684">
-      <c r="H684" s="75"/>
+      <c r="H684" s="70"/>
     </row>
     <row r="685">
-      <c r="H685" s="75"/>
+      <c r="H685" s="70"/>
     </row>
     <row r="686">
-      <c r="H686" s="75"/>
+      <c r="H686" s="70"/>
     </row>
     <row r="687">
-      <c r="H687" s="75"/>
+      <c r="H687" s="70"/>
     </row>
     <row r="688">
-      <c r="H688" s="75"/>
+      <c r="H688" s="70"/>
     </row>
     <row r="689">
-      <c r="H689" s="75"/>
+      <c r="H689" s="70"/>
     </row>
     <row r="690">
-      <c r="H690" s="75"/>
+      <c r="H690" s="70"/>
     </row>
     <row r="691">
-      <c r="H691" s="75"/>
+      <c r="H691" s="70"/>
     </row>
     <row r="692">
-      <c r="H692" s="75"/>
+      <c r="H692" s="70"/>
     </row>
     <row r="693">
-      <c r="H693" s="75"/>
+      <c r="H693" s="70"/>
     </row>
     <row r="694">
-      <c r="H694" s="75"/>
+      <c r="H694" s="70"/>
     </row>
     <row r="695">
-      <c r="H695" s="75"/>
+      <c r="H695" s="70"/>
     </row>
     <row r="696">
-      <c r="H696" s="75"/>
+      <c r="H696" s="70"/>
     </row>
     <row r="697">
-      <c r="H697" s="75"/>
+      <c r="H697" s="70"/>
     </row>
     <row r="698">
-      <c r="H698" s="75"/>
+      <c r="H698" s="70"/>
     </row>
     <row r="699">
-      <c r="H699" s="75"/>
+      <c r="H699" s="70"/>
     </row>
     <row r="700">
-      <c r="H700" s="75"/>
+      <c r="H700" s="70"/>
     </row>
     <row r="701">
-      <c r="H701" s="75"/>
+      <c r="H701" s="70"/>
     </row>
     <row r="702">
-      <c r="H702" s="75"/>
+      <c r="H702" s="70"/>
     </row>
     <row r="703">
-      <c r="H703" s="75"/>
+      <c r="H703" s="70"/>
     </row>
     <row r="704">
-      <c r="H704" s="75"/>
+      <c r="H704" s="70"/>
     </row>
     <row r="705">
-      <c r="H705" s="75"/>
+      <c r="H705" s="70"/>
     </row>
     <row r="706">
-      <c r="H706" s="75"/>
+      <c r="H706" s="70"/>
     </row>
     <row r="707">
-      <c r="H707" s="75"/>
+      <c r="H707" s="70"/>
     </row>
     <row r="708">
-      <c r="H708" s="75"/>
+      <c r="H708" s="70"/>
     </row>
     <row r="709">
-      <c r="H709" s="75"/>
+      <c r="H709" s="70"/>
     </row>
     <row r="710">
-      <c r="H710" s="75"/>
+      <c r="H710" s="70"/>
     </row>
     <row r="711">
-      <c r="H711" s="75"/>
+      <c r="H711" s="70"/>
     </row>
     <row r="712">
-      <c r="H712" s="75"/>
+      <c r="H712" s="70"/>
     </row>
     <row r="713">
-      <c r="H713" s="75"/>
+      <c r="H713" s="70"/>
     </row>
     <row r="714">
-      <c r="H714" s="75"/>
+      <c r="H714" s="70"/>
     </row>
     <row r="715">
-      <c r="H715" s="75"/>
+      <c r="H715" s="70"/>
     </row>
     <row r="716">
-      <c r="H716" s="75"/>
+      <c r="H716" s="70"/>
     </row>
     <row r="717">
-      <c r="H717" s="75"/>
+      <c r="H717" s="70"/>
     </row>
     <row r="718">
-      <c r="H718" s="75"/>
+      <c r="H718" s="70"/>
     </row>
     <row r="719">
-      <c r="H719" s="75"/>
+      <c r="H719" s="70"/>
     </row>
     <row r="720">
-      <c r="H720" s="75"/>
+      <c r="H720" s="70"/>
     </row>
     <row r="721">
-      <c r="H721" s="75"/>
+      <c r="H721" s="70"/>
     </row>
     <row r="722">
-      <c r="H722" s="75"/>
+      <c r="H722" s="70"/>
     </row>
     <row r="723">
-      <c r="H723" s="75"/>
+      <c r="H723" s="70"/>
     </row>
     <row r="724">
-      <c r="H724" s="75"/>
+      <c r="H724" s="70"/>
     </row>
     <row r="725">
-      <c r="H725" s="75"/>
+      <c r="H725" s="70"/>
     </row>
     <row r="726">
-      <c r="H726" s="75"/>
+      <c r="H726" s="70"/>
     </row>
     <row r="727">
-      <c r="H727" s="75"/>
+      <c r="H727" s="70"/>
     </row>
     <row r="728">
-      <c r="H728" s="75"/>
+      <c r="H728" s="70"/>
     </row>
     <row r="729">
-      <c r="H729" s="75"/>
+      <c r="H729" s="70"/>
     </row>
     <row r="730">
-      <c r="H730" s="75"/>
+      <c r="H730" s="70"/>
     </row>
     <row r="731">
-      <c r="H731" s="75"/>
+      <c r="H731" s="70"/>
     </row>
     <row r="732">
-      <c r="H732" s="75"/>
+      <c r="H732" s="70"/>
     </row>
     <row r="733">
-      <c r="H733" s="75"/>
+      <c r="H733" s="70"/>
     </row>
     <row r="734">
-      <c r="H734" s="75"/>
+      <c r="H734" s="70"/>
     </row>
     <row r="735">
-      <c r="H735" s="75"/>
+      <c r="H735" s="70"/>
     </row>
     <row r="736">
-      <c r="H736" s="75"/>
+      <c r="H736" s="70"/>
     </row>
     <row r="737">
-      <c r="H737" s="75"/>
+      <c r="H737" s="70"/>
     </row>
     <row r="738">
-      <c r="H738" s="75"/>
+      <c r="H738" s="70"/>
     </row>
     <row r="739">
-      <c r="H739" s="75"/>
+      <c r="H739" s="70"/>
     </row>
     <row r="740">
-      <c r="H740" s="75"/>
+      <c r="H740" s="70"/>
     </row>
     <row r="741">
-      <c r="H741" s="75"/>
+      <c r="H741" s="70"/>
     </row>
     <row r="742">
-      <c r="H742" s="75"/>
+      <c r="H742" s="70"/>
     </row>
     <row r="743">
-      <c r="H743" s="75"/>
+      <c r="H743" s="70"/>
     </row>
     <row r="744">
-      <c r="H744" s="75"/>
+      <c r="H744" s="70"/>
     </row>
     <row r="745">
-      <c r="H745" s="75"/>
+      <c r="H745" s="70"/>
     </row>
     <row r="746">
-      <c r="H746" s="75"/>
+      <c r="H746" s="70"/>
     </row>
     <row r="747">
-      <c r="H747" s="75"/>
+      <c r="H747" s="70"/>
     </row>
     <row r="748">
-      <c r="H748" s="75"/>
+      <c r="H748" s="70"/>
     </row>
     <row r="749">
-      <c r="H749" s="75"/>
+      <c r="H749" s="70"/>
     </row>
     <row r="750">
-      <c r="H750" s="75"/>
+      <c r="H750" s="70"/>
     </row>
     <row r="751">
-      <c r="H751" s="75"/>
+      <c r="H751" s="70"/>
     </row>
     <row r="752">
-      <c r="H752" s="75"/>
+      <c r="H752" s="70"/>
     </row>
     <row r="753">
-      <c r="H753" s="75"/>
+      <c r="H753" s="70"/>
     </row>
     <row r="754">
-      <c r="H754" s="75"/>
+      <c r="H754" s="70"/>
     </row>
     <row r="755">
-      <c r="H755" s="75"/>
+      <c r="H755" s="70"/>
     </row>
     <row r="756">
-      <c r="H756" s="75"/>
+      <c r="H756" s="70"/>
     </row>
     <row r="757">
-      <c r="H757" s="75"/>
+      <c r="H757" s="70"/>
     </row>
     <row r="758">
-      <c r="H758" s="75"/>
+      <c r="H758" s="70"/>
     </row>
     <row r="759">
-      <c r="H759" s="75"/>
+      <c r="H759" s="70"/>
     </row>
     <row r="760">
-      <c r="H760" s="75"/>
+      <c r="H760" s="70"/>
     </row>
     <row r="761">
-      <c r="H761" s="75"/>
+      <c r="H761" s="70"/>
     </row>
     <row r="762">
-      <c r="H762" s="75"/>
+      <c r="H762" s="70"/>
     </row>
     <row r="763">
-      <c r="H763" s="75"/>
+      <c r="H763" s="70"/>
     </row>
     <row r="764">
-      <c r="H764" s="75"/>
+      <c r="H764" s="70"/>
     </row>
     <row r="765">
-      <c r="H765" s="75"/>
+      <c r="H765" s="70"/>
     </row>
     <row r="766">
-      <c r="H766" s="75"/>
+      <c r="H766" s="70"/>
     </row>
     <row r="767">
-      <c r="H767" s="75"/>
+      <c r="H767" s="70"/>
     </row>
     <row r="768">
-      <c r="H768" s="75"/>
+      <c r="H768" s="70"/>
     </row>
     <row r="769">
-      <c r="H769" s="75"/>
+      <c r="H769" s="70"/>
     </row>
     <row r="770">
-      <c r="H770" s="75"/>
+      <c r="H770" s="70"/>
     </row>
     <row r="771">
-      <c r="H771" s="75"/>
+      <c r="H771" s="70"/>
     </row>
     <row r="772">
-      <c r="H772" s="75"/>
+      <c r="H772" s="70"/>
     </row>
     <row r="773">
-      <c r="H773" s="75"/>
+      <c r="H773" s="70"/>
     </row>
     <row r="774">
-      <c r="H774" s="75"/>
+      <c r="H774" s="70"/>
     </row>
     <row r="775">
-      <c r="H775" s="75"/>
+      <c r="H775" s="70"/>
     </row>
     <row r="776">
-      <c r="H776" s="75"/>
+      <c r="H776" s="70"/>
     </row>
     <row r="777">
-      <c r="H777" s="75"/>
+      <c r="H777" s="70"/>
     </row>
     <row r="778">
-      <c r="H778" s="75"/>
+      <c r="H778" s="70"/>
     </row>
     <row r="779">
-      <c r="H779" s="75"/>
+      <c r="H779" s="70"/>
     </row>
     <row r="780">
-      <c r="H780" s="75"/>
+      <c r="H780" s="70"/>
     </row>
     <row r="781">
-      <c r="H781" s="75"/>
+      <c r="H781" s="70"/>
     </row>
     <row r="782">
-      <c r="H782" s="75"/>
+      <c r="H782" s="70"/>
     </row>
     <row r="783">
-      <c r="H783" s="75"/>
+      <c r="H783" s="70"/>
     </row>
     <row r="784">
-      <c r="H784" s="75"/>
+      <c r="H784" s="70"/>
     </row>
     <row r="785">
-      <c r="H785" s="75"/>
+      <c r="H785" s="70"/>
     </row>
     <row r="786">
-      <c r="H786" s="75"/>
+      <c r="H786" s="70"/>
     </row>
     <row r="787">
-      <c r="H787" s="75"/>
+      <c r="H787" s="70"/>
     </row>
     <row r="788">
-      <c r="H788" s="75"/>
+      <c r="H788" s="70"/>
     </row>
     <row r="789">
-      <c r="H789" s="75"/>
+      <c r="H789" s="70"/>
     </row>
     <row r="790">
-      <c r="H790" s="75"/>
+      <c r="H790" s="70"/>
     </row>
     <row r="791">
-      <c r="H791" s="75"/>
+      <c r="H791" s="70"/>
     </row>
     <row r="792">
-      <c r="H792" s="75"/>
+      <c r="H792" s="70"/>
     </row>
     <row r="793">
-      <c r="H793" s="75"/>
+      <c r="H793" s="70"/>
     </row>
     <row r="794">
-      <c r="H794" s="75"/>
+      <c r="H794" s="70"/>
     </row>
     <row r="795">
-      <c r="H795" s="75"/>
+      <c r="H795" s="70"/>
     </row>
     <row r="796">
-      <c r="H796" s="75"/>
+      <c r="H796" s="70"/>
     </row>
     <row r="797">
-      <c r="H797" s="75"/>
+      <c r="H797" s="70"/>
     </row>
     <row r="798">
-      <c r="H798" s="75"/>
+      <c r="H798" s="70"/>
     </row>
     <row r="799">
-      <c r="H799" s="75"/>
+      <c r="H799" s="70"/>
     </row>
     <row r="800">
-      <c r="H800" s="75"/>
+      <c r="H800" s="70"/>
     </row>
     <row r="801">
-      <c r="H801" s="75"/>
+      <c r="H801" s="70"/>
     </row>
     <row r="802">
-      <c r="H802" s="75"/>
+      <c r="H802" s="70"/>
     </row>
     <row r="803">
-      <c r="H803" s="75"/>
+      <c r="H803" s="70"/>
     </row>
     <row r="804">
-      <c r="H804" s="75"/>
+      <c r="H804" s="70"/>
     </row>
     <row r="805">
-      <c r="H805" s="75"/>
+      <c r="H805" s="70"/>
     </row>
     <row r="806">
-      <c r="H806" s="75"/>
+      <c r="H806" s="70"/>
     </row>
     <row r="807">
-      <c r="H807" s="75"/>
+      <c r="H807" s="70"/>
     </row>
     <row r="808">
-      <c r="H808" s="75"/>
+      <c r="H808" s="70"/>
     </row>
     <row r="809">
-      <c r="H809" s="75"/>
+      <c r="H809" s="70"/>
     </row>
     <row r="810">
-      <c r="H810" s="75"/>
+      <c r="H810" s="70"/>
     </row>
     <row r="811">
-      <c r="H811" s="75"/>
+      <c r="H811" s="70"/>
     </row>
     <row r="812">
-      <c r="H812" s="75"/>
+      <c r="H812" s="70"/>
     </row>
     <row r="813">
-      <c r="H813" s="75"/>
+      <c r="H813" s="70"/>
     </row>
     <row r="814">
-      <c r="H814" s="75"/>
+      <c r="H814" s="70"/>
     </row>
     <row r="815">
-      <c r="H815" s="75"/>
+      <c r="H815" s="70"/>
     </row>
     <row r="816">
-      <c r="H816" s="75"/>
+      <c r="H816" s="70"/>
     </row>
     <row r="817">
-      <c r="H817" s="75"/>
+      <c r="H817" s="70"/>
     </row>
     <row r="818">
-      <c r="H818" s="75"/>
+      <c r="H818" s="70"/>
     </row>
     <row r="819">
-      <c r="H819" s="75"/>
+      <c r="H819" s="70"/>
     </row>
     <row r="820">
-      <c r="H820" s="75"/>
+      <c r="H820" s="70"/>
     </row>
     <row r="821">
-      <c r="H821" s="75"/>
+      <c r="H821" s="70"/>
     </row>
     <row r="822">
-      <c r="H822" s="75"/>
+      <c r="H822" s="70"/>
     </row>
     <row r="823">
-      <c r="H823" s="75"/>
+      <c r="H823" s="70"/>
     </row>
     <row r="824">
-      <c r="H824" s="75"/>
+      <c r="H824" s="70"/>
     </row>
     <row r="825">
-      <c r="H825" s="75"/>
+      <c r="H825" s="70"/>
     </row>
     <row r="826">
-      <c r="H826" s="75"/>
+      <c r="H826" s="70"/>
     </row>
     <row r="827">
-      <c r="H827" s="75"/>
+      <c r="H827" s="70"/>
     </row>
     <row r="828">
-      <c r="H828" s="75"/>
+      <c r="H828" s="70"/>
     </row>
     <row r="829">
-      <c r="H829" s="75"/>
+      <c r="H829" s="70"/>
     </row>
     <row r="830">
-      <c r="H830" s="75"/>
+      <c r="H830" s="70"/>
     </row>
     <row r="831">
-      <c r="H831" s="75"/>
+      <c r="H831" s="70"/>
     </row>
     <row r="832">
-      <c r="H832" s="75"/>
+      <c r="H832" s="70"/>
     </row>
     <row r="833">
-      <c r="H833" s="75"/>
+      <c r="H833" s="70"/>
     </row>
     <row r="834">
-      <c r="H834" s="75"/>
+      <c r="H834" s="70"/>
     </row>
     <row r="835">
-      <c r="H835" s="75"/>
+      <c r="H835" s="70"/>
     </row>
     <row r="836">
-      <c r="H836" s="75"/>
+      <c r="H836" s="70"/>
     </row>
     <row r="837">
-      <c r="H837" s="75"/>
+      <c r="H837" s="70"/>
     </row>
     <row r="838">
-      <c r="H838" s="75"/>
+      <c r="H838" s="70"/>
     </row>
     <row r="839">
-      <c r="H839" s="75"/>
+      <c r="H839" s="70"/>
     </row>
     <row r="840">
-      <c r="H840" s="75"/>
+      <c r="H840" s="70"/>
     </row>
     <row r="841">
-      <c r="H841" s="75"/>
+      <c r="H841" s="70"/>
     </row>
     <row r="842">
-      <c r="H842" s="75"/>
+      <c r="H842" s="70"/>
     </row>
     <row r="843">
-      <c r="H843" s="75"/>
+      <c r="H843" s="70"/>
     </row>
     <row r="844">
-      <c r="H844" s="75"/>
+      <c r="H844" s="70"/>
     </row>
     <row r="845">
-      <c r="H845" s="75"/>
+      <c r="H845" s="70"/>
     </row>
     <row r="846">
-      <c r="H846" s="75"/>
+      <c r="H846" s="70"/>
     </row>
     <row r="847">
-      <c r="H847" s="75"/>
+      <c r="H847" s="70"/>
     </row>
     <row r="848">
-      <c r="H848" s="75"/>
+      <c r="H848" s="70"/>
     </row>
     <row r="849">
-      <c r="H849" s="75"/>
+      <c r="H849" s="70"/>
     </row>
     <row r="850">
-      <c r="H850" s="75"/>
+      <c r="H850" s="70"/>
     </row>
     <row r="851">
-      <c r="H851" s="75"/>
+      <c r="H851" s="70"/>
     </row>
     <row r="852">
-      <c r="H852" s="75"/>
+      <c r="H852" s="70"/>
     </row>
     <row r="853">
-      <c r="H853" s="75"/>
+      <c r="H853" s="70"/>
     </row>
     <row r="854">
-      <c r="H854" s="75"/>
+      <c r="H854" s="70"/>
     </row>
     <row r="855">
-      <c r="H855" s="75"/>
+      <c r="H855" s="70"/>
     </row>
     <row r="856">
-      <c r="H856" s="75"/>
+      <c r="H856" s="70"/>
     </row>
     <row r="857">
-      <c r="H857" s="75"/>
+      <c r="H857" s="70"/>
     </row>
     <row r="858">
-      <c r="H858" s="75"/>
+      <c r="H858" s="70"/>
     </row>
     <row r="859">
-      <c r="H859" s="75"/>
+      <c r="H859" s="70"/>
     </row>
     <row r="860">
-      <c r="H860" s="75"/>
+      <c r="H860" s="70"/>
     </row>
     <row r="861">
-      <c r="H861" s="75"/>
+      <c r="H861" s="70"/>
     </row>
     <row r="862">
-      <c r="H862" s="75"/>
+      <c r="H862" s="70"/>
     </row>
     <row r="863">
-      <c r="H863" s="75"/>
+      <c r="H863" s="70"/>
     </row>
     <row r="864">
-      <c r="H864" s="75"/>
+      <c r="H864" s="70"/>
     </row>
     <row r="865">
-      <c r="H865" s="75"/>
+      <c r="H865" s="70"/>
     </row>
     <row r="866">
-      <c r="H866" s="75"/>
+      <c r="H866" s="70"/>
     </row>
     <row r="867">
-      <c r="H867" s="75"/>
+      <c r="H867" s="70"/>
     </row>
     <row r="868">
-      <c r="H868" s="75"/>
+      <c r="H868" s="70"/>
     </row>
     <row r="869">
-      <c r="H869" s="75"/>
+      <c r="H869" s="70"/>
     </row>
     <row r="870">
-      <c r="H870" s="75"/>
+      <c r="H870" s="70"/>
     </row>
     <row r="871">
-      <c r="H871" s="75"/>
+      <c r="H871" s="70"/>
     </row>
     <row r="872">
-      <c r="H872" s="75"/>
+      <c r="H872" s="70"/>
     </row>
     <row r="873">
-      <c r="H873" s="75"/>
+      <c r="H873" s="70"/>
     </row>
     <row r="874">
-      <c r="H874" s="75"/>
+      <c r="H874" s="70"/>
     </row>
     <row r="875">
-      <c r="H875" s="75"/>
+      <c r="H875" s="70"/>
     </row>
     <row r="876">
-      <c r="H876" s="75"/>
+      <c r="H876" s="70"/>
     </row>
     <row r="877">
-      <c r="H877" s="75"/>
+      <c r="H877" s="70"/>
     </row>
     <row r="878">
-      <c r="H878" s="75"/>
+      <c r="H878" s="70"/>
     </row>
     <row r="879">
-      <c r="H879" s="75"/>
+      <c r="H879" s="70"/>
     </row>
     <row r="880">
-      <c r="H880" s="75"/>
+      <c r="H880" s="70"/>
     </row>
     <row r="881">
-      <c r="H881" s="75"/>
+      <c r="H881" s="70"/>
     </row>
     <row r="882">
-      <c r="H882" s="75"/>
+      <c r="H882" s="70"/>
     </row>
     <row r="883">
-      <c r="H883" s="75"/>
+      <c r="H883" s="70"/>
     </row>
     <row r="884">
-      <c r="H884" s="75"/>
+      <c r="H884" s="70"/>
     </row>
     <row r="885">
-      <c r="H885" s="75"/>
+      <c r="H885" s="70"/>
     </row>
     <row r="886">
-      <c r="H886" s="75"/>
+      <c r="H886" s="70"/>
     </row>
     <row r="887">
-      <c r="H887" s="75"/>
+      <c r="H887" s="70"/>
     </row>
     <row r="888">
-      <c r="H888" s="75"/>
+      <c r="H888" s="70"/>
     </row>
     <row r="889">
-      <c r="H889" s="75"/>
+      <c r="H889" s="70"/>
     </row>
     <row r="890">
-      <c r="H890" s="75"/>
+      <c r="H890" s="70"/>
     </row>
     <row r="891">
-      <c r="H891" s="75"/>
+      <c r="H891" s="70"/>
     </row>
     <row r="892">
-      <c r="H892" s="75"/>
+      <c r="H892" s="70"/>
     </row>
     <row r="893">
-      <c r="H893" s="75"/>
+      <c r="H893" s="70"/>
     </row>
     <row r="894">
-      <c r="H894" s="75"/>
+      <c r="H894" s="70"/>
     </row>
     <row r="895">
-      <c r="H895" s="75"/>
+      <c r="H895" s="70"/>
     </row>
     <row r="896">
-      <c r="H896" s="75"/>
+      <c r="H896" s="70"/>
     </row>
     <row r="897">
-      <c r="H897" s="75"/>
+      <c r="H897" s="70"/>
     </row>
     <row r="898">
-      <c r="H898" s="75"/>
+      <c r="H898" s="70"/>
     </row>
     <row r="899">
-      <c r="H899" s="75"/>
+      <c r="H899" s="70"/>
     </row>
     <row r="900">
-      <c r="H900" s="75"/>
+      <c r="H900" s="70"/>
     </row>
     <row r="901">
-      <c r="H901" s="75"/>
+      <c r="H901" s="70"/>
     </row>
     <row r="902">
-      <c r="H902" s="75"/>
+      <c r="H902" s="70"/>
     </row>
     <row r="903">
-      <c r="H903" s="75"/>
+      <c r="H903" s="70"/>
     </row>
     <row r="904">
-      <c r="H904" s="75"/>
+      <c r="H904" s="70"/>
     </row>
     <row r="905">
-      <c r="H905" s="75"/>
+      <c r="H905" s="70"/>
     </row>
     <row r="906">
-      <c r="H906" s="75"/>
+      <c r="H906" s="70"/>
     </row>
     <row r="907">
-      <c r="H907" s="75"/>
+      <c r="H907" s="70"/>
     </row>
     <row r="908">
-      <c r="H908" s="75"/>
+      <c r="H908" s="70"/>
     </row>
     <row r="909">
-      <c r="H909" s="75"/>
+      <c r="H909" s="70"/>
     </row>
     <row r="910">
-      <c r="H910" s="75"/>
+      <c r="H910" s="70"/>
     </row>
     <row r="911">
-      <c r="H911" s="75"/>
+      <c r="H911" s="70"/>
     </row>
     <row r="912">
-      <c r="H912" s="75"/>
+      <c r="H912" s="70"/>
     </row>
     <row r="913">
-      <c r="H913" s="75"/>
+      <c r="H913" s="70"/>
     </row>
     <row r="914">
-      <c r="H914" s="75"/>
+      <c r="H914" s="70"/>
     </row>
     <row r="915">
-      <c r="H915" s="75"/>
+      <c r="H915" s="70"/>
     </row>
     <row r="916">
-      <c r="H916" s="75"/>
+      <c r="H916" s="70"/>
     </row>
     <row r="917">
-      <c r="H917" s="75"/>
+      <c r="H917" s="70"/>
     </row>
     <row r="918">
-      <c r="H918" s="75"/>
+      <c r="H918" s="70"/>
     </row>
     <row r="919">
-      <c r="H919" s="75"/>
+      <c r="H919" s="70"/>
     </row>
     <row r="920">
-      <c r="H920" s="75"/>
+      <c r="H920" s="70"/>
     </row>
     <row r="921">
-      <c r="H921" s="75"/>
+      <c r="H921" s="70"/>
     </row>
     <row r="922">
-      <c r="H922" s="75"/>
+      <c r="H922" s="70"/>
     </row>
     <row r="923">
-      <c r="H923" s="75"/>
+      <c r="H923" s="70"/>
     </row>
     <row r="924">
-      <c r="H924" s="75"/>
+      <c r="H924" s="70"/>
     </row>
     <row r="925">
-      <c r="H925" s="75"/>
+      <c r="H925" s="70"/>
     </row>
     <row r="926">
-      <c r="H926" s="75"/>
+      <c r="H926" s="70"/>
     </row>
     <row r="927">
-      <c r="H927" s="75"/>
+      <c r="H927" s="70"/>
     </row>
     <row r="928">
-      <c r="H928" s="75"/>
+      <c r="H928" s="70"/>
     </row>
     <row r="929">
-      <c r="H929" s="75"/>
+      <c r="H929" s="70"/>
     </row>
     <row r="930">
-      <c r="H930" s="75"/>
+      <c r="H930" s="70"/>
     </row>
     <row r="931">
-      <c r="H931" s="75"/>
+      <c r="H931" s="70"/>
     </row>
     <row r="932">
-      <c r="H932" s="75"/>
+      <c r="H932" s="70"/>
     </row>
     <row r="933">
-      <c r="H933" s="75"/>
+      <c r="H933" s="70"/>
     </row>
     <row r="934">
-      <c r="H934" s="75"/>
+      <c r="H934" s="70"/>
     </row>
     <row r="935">
-      <c r="H935" s="75"/>
+      <c r="H935" s="70"/>
     </row>
     <row r="936">
-      <c r="H936" s="75"/>
+      <c r="H936" s="70"/>
     </row>
     <row r="937">
-      <c r="H937" s="75"/>
+      <c r="H937" s="70"/>
     </row>
     <row r="938">
-      <c r="H938" s="75"/>
+      <c r="H938" s="70"/>
     </row>
     <row r="939">
-      <c r="H939" s="75"/>
+      <c r="H939" s="70"/>
     </row>
     <row r="940">
-      <c r="H940" s="75"/>
+      <c r="H940" s="70"/>
     </row>
     <row r="941">
-      <c r="H941" s="75"/>
+      <c r="H941" s="70"/>
     </row>
     <row r="942">
-      <c r="H942" s="75"/>
+      <c r="H942" s="70"/>
     </row>
     <row r="943">
-      <c r="H943" s="75"/>
+      <c r="H943" s="70"/>
     </row>
     <row r="944">
-      <c r="H944" s="75"/>
+      <c r="H944" s="70"/>
     </row>
     <row r="945">
-      <c r="H945" s="75"/>
+      <c r="H945" s="70"/>
     </row>
     <row r="946">
-      <c r="H946" s="75"/>
+      <c r="H946" s="70"/>
     </row>
     <row r="947">
-      <c r="H947" s="75"/>
+      <c r="H947" s="70"/>
     </row>
     <row r="948">
-      <c r="H948" s="75"/>
+      <c r="H948" s="70"/>
     </row>
     <row r="949">
-      <c r="H949" s="75"/>
+      <c r="H949" s="70"/>
     </row>
     <row r="950">
-      <c r="H950" s="75"/>
+      <c r="H950" s="70"/>
     </row>
     <row r="951">
-      <c r="H951" s="75"/>
+      <c r="H951" s="70"/>
     </row>
     <row r="952">
-      <c r="H952" s="75"/>
+      <c r="H952" s="70"/>
     </row>
     <row r="953">
-      <c r="H953" s="75"/>
+      <c r="H953" s="70"/>
     </row>
     <row r="954">
-      <c r="H954" s="75"/>
+      <c r="H954" s="70"/>
     </row>
     <row r="955">
-      <c r="H955" s="75"/>
+      <c r="H955" s="70"/>
     </row>
     <row r="956">
-      <c r="H956" s="75"/>
+      <c r="H956" s="70"/>
     </row>
     <row r="957">
-      <c r="H957" s="75"/>
+      <c r="H957" s="70"/>
     </row>
     <row r="958">
-      <c r="H958" s="75"/>
+      <c r="H958" s="70"/>
     </row>
     <row r="959">
-      <c r="H959" s="75"/>
+      <c r="H959" s="70"/>
     </row>
     <row r="960">
-      <c r="H960" s="75"/>
+      <c r="H960" s="70"/>
     </row>
     <row r="961">
-      <c r="H961" s="75"/>
+      <c r="H961" s="70"/>
     </row>
     <row r="962">
-      <c r="H962" s="75"/>
+      <c r="H962" s="70"/>
     </row>
     <row r="963">
-      <c r="H963" s="75"/>
+      <c r="H963" s="70"/>
     </row>
     <row r="964">
-      <c r="H964" s="75"/>
+      <c r="H964" s="70"/>
     </row>
     <row r="965">
-      <c r="H965" s="75"/>
+      <c r="H965" s="70"/>
     </row>
     <row r="966">
-      <c r="H966" s="75"/>
+      <c r="H966" s="70"/>
     </row>
     <row r="967">
-      <c r="H967" s="75"/>
+      <c r="H967" s="70"/>
     </row>
     <row r="968">
-      <c r="H968" s="75"/>
+      <c r="H968" s="70"/>
     </row>
     <row r="969">
-      <c r="H969" s="75"/>
+      <c r="H969" s="70"/>
     </row>
     <row r="970">
-      <c r="H970" s="75"/>
+      <c r="H970" s="70"/>
     </row>
     <row r="971">
-      <c r="H971" s="75"/>
+      <c r="H971" s="70"/>
     </row>
     <row r="972">
-      <c r="H972" s="75"/>
+      <c r="H972" s="70"/>
     </row>
     <row r="973">
-      <c r="H973" s="75"/>
+      <c r="H973" s="70"/>
     </row>
     <row r="974">
-      <c r="H974" s="75"/>
+      <c r="H974" s="70"/>
     </row>
     <row r="975">
-      <c r="H975" s="75"/>
+      <c r="H975" s="70"/>
     </row>
     <row r="976">
-      <c r="H976" s="75"/>
+      <c r="H976" s="70"/>
     </row>
     <row r="977">
-      <c r="H977" s="75"/>
+      <c r="H977" s="70"/>
     </row>
     <row r="978">
-      <c r="H978" s="75"/>
+      <c r="H978" s="70"/>
     </row>
     <row r="979">
-      <c r="H979" s="75"/>
+      <c r="H979" s="70"/>
     </row>
     <row r="980">
-      <c r="H980" s="75"/>
+      <c r="H980" s="70"/>
     </row>
     <row r="981">
-      <c r="H981" s="75"/>
+      <c r="H981" s="70"/>
     </row>
     <row r="982">
-      <c r="H982" s="75"/>
+      <c r="H982" s="70"/>
     </row>
     <row r="983">
-      <c r="H983" s="75"/>
+      <c r="H983" s="70"/>
     </row>
     <row r="984">
-      <c r="H984" s="75"/>
+      <c r="H984" s="70"/>
     </row>
     <row r="985">
-      <c r="H985" s="75"/>
+      <c r="H985" s="70"/>
     </row>
     <row r="986">
-      <c r="H986" s="75"/>
+      <c r="H986" s="70"/>
     </row>
     <row r="987">
-      <c r="H987" s="75"/>
+      <c r="H987" s="70"/>
     </row>
     <row r="988">
-      <c r="H988" s="75"/>
+      <c r="H988" s="70"/>
     </row>
     <row r="989">
-      <c r="H989" s="75"/>
+      <c r="H989" s="70"/>
     </row>
     <row r="990">
-      <c r="H990" s="75"/>
+      <c r="H990" s="70"/>
     </row>
     <row r="991">
-      <c r="H991" s="75"/>
+      <c r="H991" s="70"/>
     </row>
     <row r="992">
-      <c r="H992" s="75"/>
+      <c r="H992" s="70"/>
     </row>
     <row r="993">
-      <c r="H993" s="75"/>
+      <c r="H993" s="70"/>
     </row>
     <row r="994">
-      <c r="H994" s="75"/>
+      <c r="H994" s="70"/>
     </row>
     <row r="995">
-      <c r="H995" s="75"/>
+      <c r="H995" s="70"/>
     </row>
     <row r="996">
-      <c r="H996" s="75"/>
+      <c r="H996" s="70"/>
     </row>
     <row r="997">
-      <c r="H997" s="75"/>
+      <c r="H997" s="70"/>
     </row>
     <row r="998">
-      <c r="H998" s="75"/>
+      <c r="H998" s="70"/>
     </row>
     <row r="999">
-      <c r="H999" s="75"/>
+      <c r="H999" s="70"/>
     </row>
     <row r="1000">
-      <c r="H1000" s="75"/>
+      <c r="H1000" s="70"/>
     </row>
     <row r="1001">
-      <c r="H1001" s="75"/>
+      <c r="H1001" s="70"/>
     </row>
     <row r="1002">
-      <c r="H1002" s="75"/>
+      <c r="H1002" s="70"/>
     </row>
     <row r="1003">
-      <c r="H1003" s="75"/>
+      <c r="H1003" s="70"/>
     </row>
     <row r="1004">
-      <c r="H1004" s="75"/>
+      <c r="H1004" s="70"/>
     </row>
     <row r="1005">
-      <c r="H1005" s="75"/>
+      <c r="H1005" s="70"/>
     </row>
     <row r="1006">
-      <c r="H1006" s="75"/>
+      <c r="H1006" s="70"/>
     </row>
     <row r="1007">
-      <c r="H1007" s="75"/>
+      <c r="H1007" s="70"/>
     </row>
     <row r="1008">
-      <c r="H1008" s="75"/>
+      <c r="H1008" s="70"/>
     </row>
     <row r="1009">
-      <c r="H1009" s="75"/>
+      <c r="H1009" s="70"/>
     </row>
     <row r="1010">
-      <c r="H1010" s="75"/>
+      <c r="H1010" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="5">
